--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Protective Work Estimate Pangusi DPP/Khaulia Gabtola 4.500 D-S  End Termination 2.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Protective Work Estimate Pangusi DPP/Khaulia Gabtola 4.500 D-S  End Termination 2.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="12120" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EARTH CALCULATION" sheetId="1" r:id="rId1"/>
     <sheet name="ABSTRACT" sheetId="2" r:id="rId2"/>
     <sheet name="DETAILED" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -2243,218 +2243,218 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2474,7 +2474,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2567,7 +2567,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-48B9-473D-8C14-8F8E07AF0F39}"/>
             </c:ext>
@@ -2607,7 +2607,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-48B9-473D-8C14-8F8E07AF0F39}"/>
             </c:ext>
@@ -2672,7 +2672,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2747,7 +2747,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D2A5-44C3-AB9B-6FBD1C4A3F85}"/>
             </c:ext>
@@ -2799,7 +2799,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D2A5-44C3-AB9B-6FBD1C4A3F85}"/>
             </c:ext>
@@ -2883,7 +2883,7 @@
         <xdr:cNvPr id="10" name="Text Box 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3011,7 +3011,7 @@
         <xdr:cNvPr id="11" name="Text Box 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,7 +3139,7 @@
         <xdr:cNvPr id="12" name="Text Box 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3272,7 +3272,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3308,7 +3308,7 @@
         <xdr:cNvPr id="21" name="Text Box 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3453,7 +3453,7 @@
         <xdr:cNvPr id="22" name="Text Box 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3588,7 +3588,7 @@
         <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3629,7 +3629,7 @@
         <xdr:cNvPr id="5" name="Text Box 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3772,7 +3772,7 @@
         <xdr:cNvPr id="6" name="Text Box 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3925,7 +3925,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4066,7 +4066,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4203,7 +4203,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4371,7 +4371,7 @@
         <xdr:cNvPr id="2" name="Text Box 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4519,7 +4519,7 @@
         <xdr:cNvPr id="3" name="Text Box 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4913,20 +4913,20 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="2.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.21875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.25" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5967,7 +5967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -5999,32 +5999,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="2"/>
-    <col min="8" max="8" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="4" max="4" width="8.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="2"/>
+    <col min="8" max="8" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="361" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
+      <c r="B1" s="361"/>
+      <c r="C1" s="361"/>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
     </row>
     <row r="2" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -6256,7 +6256,7 @@
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
     </row>
-    <row r="14" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>146</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>2730768.1896404997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>66</v>
       </c>
@@ -6572,20 +6572,20 @@
         <v>24710.183592000001</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="292" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="291" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="293"/>
-      <c r="C31" s="293"/>
-      <c r="D31" s="293"/>
-      <c r="E31" s="294"/>
+      <c r="B31" s="292"/>
+      <c r="C31" s="292"/>
+      <c r="D31" s="292"/>
+      <c r="E31" s="293"/>
       <c r="F31" s="53">
         <f>SUM(F4:F30)</f>
         <v>133373212.02263735</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="42"/>
       <c r="C32" s="43"/>
@@ -6593,7 +6593,7 @@
       <c r="E32" s="41"/>
       <c r="F32" s="45"/>
     </row>
-    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="42"/>
       <c r="C33" s="43"/>
@@ -6601,7 +6601,7 @@
       <c r="E33" s="41"/>
       <c r="F33" s="45"/>
     </row>
-    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="42"/>
       <c r="C34" s="43"/>
@@ -6609,7 +6609,7 @@
       <c r="E34" s="41"/>
       <c r="F34" s="45"/>
     </row>
-    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -6617,7 +6617,7 @@
       <c r="E35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -6625,7 +6625,7 @@
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -6633,7 +6633,7 @@
       <c r="E37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -6641,7 +6641,7 @@
       <c r="E38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -6649,7 +6649,7 @@
       <c r="E39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -6657,7 +6657,7 @@
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -6665,7 +6665,7 @@
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="42"/>
       <c r="C42" s="43"/>
@@ -6673,7 +6673,7 @@
       <c r="E42" s="41"/>
       <c r="F42" s="45"/>
     </row>
-    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="42"/>
       <c r="C43" s="43"/>
@@ -6682,7 +6682,7 @@
       <c r="F43" s="45"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="42"/>
       <c r="C44" s="43"/>
@@ -6693,7 +6693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="42"/>
       <c r="C45" s="43"/>
@@ -6701,7 +6701,7 @@
       <c r="E45" s="41"/>
       <c r="F45" s="45"/>
     </row>
-    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="42"/>
       <c r="C46" s="43"/>
@@ -6709,7 +6709,7 @@
       <c r="E46" s="41"/>
       <c r="F46" s="45"/>
     </row>
-    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="42"/>
       <c r="C47" s="43"/>
@@ -6717,7 +6717,7 @@
       <c r="E47" s="41"/>
       <c r="F47" s="45"/>
     </row>
-    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="42"/>
       <c r="C48" s="43"/>
@@ -6725,7 +6725,7 @@
       <c r="E48" s="41"/>
       <c r="F48" s="45"/>
     </row>
-    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="42"/>
       <c r="C49" s="43"/>
@@ -6733,7 +6733,7 @@
       <c r="E49" s="41"/>
       <c r="F49" s="45"/>
     </row>
-    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="42"/>
       <c r="C50" s="43"/>
@@ -6742,16 +6742,16 @@
       <c r="F50" s="45"/>
     </row>
     <row r="77" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="295" t="s">
+      <c r="A77" s="294" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="295"/>
-      <c r="C77" s="295"/>
-      <c r="D77" s="295"/>
-      <c r="E77" s="295"/>
-      <c r="F77" s="295"/>
-    </row>
-    <row r="78" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="B77" s="294"/>
+      <c r="C77" s="294"/>
+      <c r="D77" s="294"/>
+      <c r="E77" s="294"/>
+      <c r="F77" s="294"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="34" t="s">
         <v>7</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>83799.705000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="55" t="s">
         <v>30</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>12241.0134</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="192" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A87" s="66" t="s">
         <v>40</v>
       </c>
@@ -6959,20 +6959,20 @@
         <v>117909</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A88" s="292" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="291" t="s">
         <v>21</v>
       </c>
-      <c r="B88" s="293"/>
-      <c r="C88" s="293"/>
-      <c r="D88" s="293"/>
-      <c r="E88" s="294"/>
+      <c r="B88" s="292"/>
+      <c r="C88" s="292"/>
+      <c r="D88" s="292"/>
+      <c r="E88" s="293"/>
       <c r="F88" s="53">
         <f>SUM(F80:F87)</f>
         <v>1102307.0183999999</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="42"/>
       <c r="C89" s="43"/>
@@ -6980,7 +6980,7 @@
       <c r="E89" s="41"/>
       <c r="F89" s="45"/>
     </row>
-    <row r="90" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="42"/>
       <c r="C90" s="43"/>
@@ -6988,7 +6988,7 @@
       <c r="E90" s="41"/>
       <c r="F90" s="45"/>
     </row>
-    <row r="91" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="42"/>
       <c r="C91" s="43"/>
@@ -6996,7 +6996,7 @@
       <c r="E91" s="41"/>
       <c r="F91" s="45"/>
     </row>
-    <row r="92" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="42"/>
       <c r="C92" s="43"/>
@@ -7004,7 +7004,7 @@
       <c r="E92" s="41"/>
       <c r="F92" s="45"/>
     </row>
-    <row r="93" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="42"/>
       <c r="C93" s="43"/>
@@ -7012,7 +7012,7 @@
       <c r="E93" s="41"/>
       <c r="F93" s="45"/>
     </row>
-    <row r="94" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="42"/>
       <c r="C94" s="43"/>
@@ -7020,7 +7020,7 @@
       <c r="E94" s="41"/>
       <c r="F94" s="45"/>
     </row>
-    <row r="95" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="42"/>
       <c r="C95" s="43"/>
@@ -7028,7 +7028,7 @@
       <c r="E95" s="41"/>
       <c r="F95" s="45"/>
     </row>
-    <row r="96" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="42"/>
       <c r="C96" s="43"/>
@@ -7036,7 +7036,7 @@
       <c r="E96" s="41"/>
       <c r="F96" s="45"/>
     </row>
-    <row r="97" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="42"/>
       <c r="C97" s="43"/>
@@ -7044,7 +7044,7 @@
       <c r="E97" s="41"/>
       <c r="F97" s="45"/>
     </row>
-    <row r="98" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="42"/>
       <c r="C98" s="43"/>
@@ -7069,108 +7069,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="O169" sqref="O169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" customWidth="1"/>
-    <col min="4" max="4" width="1.88671875" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="1.875" customWidth="1"/>
+    <col min="5" max="5" width="7.875" customWidth="1"/>
+    <col min="6" max="6" width="5.875" customWidth="1"/>
+    <col min="7" max="7" width="2.625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="32" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="4.625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="343" t="s">
+    <row r="1" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="312" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="344"/>
-      <c r="G1" s="344"/>
-      <c r="H1" s="344"/>
-      <c r="I1" s="344"/>
-      <c r="J1" s="344"/>
-      <c r="K1" s="345"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313"/>
+      <c r="K1" s="314"/>
       <c r="L1" s="33"/>
     </row>
-    <row r="2" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="351" t="s">
+      <c r="C2" s="320" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="351"/>
-      <c r="E2" s="351"/>
-      <c r="F2" s="351"/>
-      <c r="G2" s="351"/>
-      <c r="H2" s="351"/>
-      <c r="I2" s="351"/>
-      <c r="J2" s="346" t="s">
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="320"/>
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="347"/>
+      <c r="K2" s="316"/>
       <c r="L2" s="33"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="19">
         <v>2</v>
       </c>
-      <c r="C3" s="350">
+      <c r="C3" s="319">
         <v>3</v>
       </c>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="350"/>
-      <c r="G3" s="350"/>
-      <c r="H3" s="350"/>
-      <c r="I3" s="350"/>
-      <c r="J3" s="348">
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
+      <c r="F3" s="319"/>
+      <c r="G3" s="319"/>
+      <c r="H3" s="319"/>
+      <c r="I3" s="319"/>
+      <c r="J3" s="317">
         <v>4</v>
       </c>
-      <c r="K3" s="349"/>
+      <c r="K3" s="318"/>
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
     </row>
-    <row r="4" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="331" t="s">
+    <row r="4" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="298" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="314" t="s">
+      <c r="B4" s="321" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="339"/>
-      <c r="D4" s="340"/>
-      <c r="E4" s="340"/>
-      <c r="F4" s="340"/>
-      <c r="G4" s="340"/>
+      <c r="C4" s="329"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="330"/>
       <c r="H4" s="59"/>
       <c r="I4" s="59"/>
       <c r="J4" s="85"/>
       <c r="K4" s="82"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="332"/>
-      <c r="B5" s="298"/>
-      <c r="C5" s="341"/>
-      <c r="D5" s="342"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="299"/>
+      <c r="B5" s="322"/>
+      <c r="C5" s="331"/>
+      <c r="D5" s="332"/>
       <c r="E5" s="86"/>
       <c r="F5" s="80"/>
       <c r="G5" s="80"/>
@@ -7179,24 +7179,24 @@
       <c r="J5" s="87"/>
       <c r="K5" s="83"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="332"/>
-      <c r="B6" s="298"/>
-      <c r="C6" s="337" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="299"/>
+      <c r="B6" s="322"/>
+      <c r="C6" s="327" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="338"/>
-      <c r="E6" s="338"/>
-      <c r="F6" s="338"/>
-      <c r="G6" s="338"/>
+      <c r="D6" s="328"/>
+      <c r="E6" s="328"/>
+      <c r="F6" s="328"/>
+      <c r="G6" s="328"/>
       <c r="H6" s="80"/>
       <c r="I6" s="80"/>
       <c r="J6" s="87"/>
       <c r="K6" s="83"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="332"/>
-      <c r="B7" s="298"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="299"/>
+      <c r="B7" s="322"/>
       <c r="C7" s="185">
         <v>60</v>
       </c>
@@ -7225,11 +7225,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="331" t="s">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="298" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="333" t="s">
+      <c r="B8" s="323" t="s">
         <v>144</v>
       </c>
       <c r="C8" s="183"/>
@@ -7242,15 +7242,15 @@
       <c r="J8" s="87"/>
       <c r="K8" s="83"/>
     </row>
-    <row r="9" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="332"/>
-      <c r="B9" s="334"/>
-      <c r="C9" s="337" t="s">
+    <row r="9" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="299"/>
+      <c r="B9" s="324"/>
+      <c r="C9" s="327" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="338"/>
-      <c r="E9" s="338"/>
-      <c r="F9" s="338"/>
+      <c r="D9" s="328"/>
+      <c r="E9" s="328"/>
+      <c r="F9" s="328"/>
       <c r="G9" s="182"/>
       <c r="H9" s="182">
         <v>4</v>
@@ -7266,9 +7266,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="332"/>
-      <c r="B10" s="334"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="299"/>
+      <c r="B10" s="324"/>
       <c r="C10" s="183"/>
       <c r="D10" s="182"/>
       <c r="E10" s="181"/>
@@ -7279,9 +7279,9 @@
       <c r="J10" s="87"/>
       <c r="K10" s="83"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="332"/>
-      <c r="B11" s="334"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="299"/>
+      <c r="B11" s="324"/>
       <c r="C11" s="183"/>
       <c r="D11" s="182"/>
       <c r="E11" s="181"/>
@@ -7292,31 +7292,31 @@
       <c r="J11" s="87"/>
       <c r="K11" s="83"/>
     </row>
-    <row r="12" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="333" t="s">
+      <c r="B12" s="323" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="335"/>
-      <c r="D12" s="336"/>
-      <c r="E12" s="336"/>
-      <c r="F12" s="336"/>
-      <c r="G12" s="336"/>
-      <c r="H12" s="336"/>
+      <c r="C12" s="325"/>
+      <c r="D12" s="326"/>
+      <c r="E12" s="326"/>
+      <c r="F12" s="326"/>
+      <c r="G12" s="326"/>
+      <c r="H12" s="326"/>
       <c r="I12" s="73"/>
       <c r="J12" s="81"/>
       <c r="K12" s="82"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="96"/>
-      <c r="B13" s="334"/>
-      <c r="C13" s="329" t="s">
+      <c r="B13" s="324"/>
+      <c r="C13" s="333" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="330"/>
-      <c r="E13" s="330"/>
+      <c r="D13" s="334"/>
+      <c r="E13" s="334"/>
       <c r="F13" s="244">
         <f>30+2.5*2</f>
         <v>35</v>
@@ -7329,49 +7329,49 @@
       <c r="J13" s="50"/>
       <c r="K13" s="83"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="96"/>
-      <c r="B14" s="334"/>
-      <c r="C14" s="329" t="s">
+      <c r="B14" s="324"/>
+      <c r="C14" s="333" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="330"/>
-      <c r="E14" s="330"/>
-      <c r="F14" s="304" t="s">
+      <c r="D14" s="334"/>
+      <c r="E14" s="334"/>
+      <c r="F14" s="335" t="s">
         <v>179</v>
       </c>
-      <c r="G14" s="304"/>
-      <c r="H14" s="304"/>
+      <c r="G14" s="335"/>
+      <c r="H14" s="335"/>
       <c r="I14" s="281"/>
       <c r="J14" s="50"/>
       <c r="K14" s="83"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="100"/>
-      <c r="B15" s="334"/>
+      <c r="B15" s="324"/>
       <c r="C15" s="50"/>
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
-      <c r="F15" s="306">
+      <c r="F15" s="311">
         <f>2*3.142*F13*60/360</f>
         <v>36.656666666666666</v>
       </c>
-      <c r="G15" s="306"/>
-      <c r="H15" s="306"/>
+      <c r="G15" s="311"/>
+      <c r="H15" s="311"/>
       <c r="I15" s="244" t="s">
         <v>6</v>
       </c>
       <c r="J15" s="50"/>
       <c r="K15" s="83"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="100"/>
-      <c r="B16" s="334"/>
-      <c r="C16" s="329" t="s">
+      <c r="B16" s="324"/>
+      <c r="C16" s="333" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="330"/>
-      <c r="E16" s="330"/>
+      <c r="D16" s="334"/>
+      <c r="E16" s="334"/>
       <c r="F16" s="247">
         <f>30+2*2.5+1.35+35</f>
         <v>71.349999999999994</v>
@@ -7384,64 +7384,64 @@
       <c r="J16" s="50"/>
       <c r="K16" s="83"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="100"/>
-      <c r="B17" s="334"/>
-      <c r="C17" s="329" t="s">
+      <c r="B17" s="324"/>
+      <c r="C17" s="333" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="330"/>
-      <c r="E17" s="330"/>
-      <c r="F17" s="304" t="s">
+      <c r="D17" s="334"/>
+      <c r="E17" s="334"/>
+      <c r="F17" s="335" t="s">
         <v>180</v>
       </c>
-      <c r="G17" s="304"/>
-      <c r="H17" s="304"/>
+      <c r="G17" s="335"/>
+      <c r="H17" s="335"/>
       <c r="I17" s="244"/>
       <c r="J17" s="50"/>
       <c r="K17" s="83"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="100"/>
-      <c r="B18" s="334"/>
+      <c r="B18" s="324"/>
       <c r="C18" s="51"/>
       <c r="D18" s="244"/>
       <c r="E18" s="248"/>
-      <c r="F18" s="306">
+      <c r="F18" s="311">
         <f>2*3.142*F16*60/360</f>
         <v>74.727233333333317</v>
       </c>
-      <c r="G18" s="306"/>
-      <c r="H18" s="306"/>
+      <c r="G18" s="311"/>
+      <c r="H18" s="311"/>
       <c r="I18" s="244" t="s">
         <v>6</v>
       </c>
       <c r="J18" s="50"/>
       <c r="K18" s="83"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="100"/>
-      <c r="B19" s="334"/>
-      <c r="C19" s="305" t="s">
+      <c r="B19" s="324"/>
+      <c r="C19" s="310" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="306"/>
-      <c r="E19" s="306"/>
+      <c r="D19" s="311"/>
+      <c r="E19" s="311"/>
       <c r="F19" s="244"/>
-      <c r="G19" s="306">
+      <c r="G19" s="311">
         <f>(F15+F18)/2</f>
         <v>55.691949999999991</v>
       </c>
-      <c r="H19" s="306"/>
+      <c r="H19" s="311"/>
       <c r="I19" s="244" t="s">
         <v>6</v>
       </c>
       <c r="J19" s="50"/>
       <c r="K19" s="83"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="100"/>
-      <c r="B20" s="334"/>
+      <c r="B20" s="324"/>
       <c r="C20" s="50"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
@@ -7452,9 +7452,9 @@
       <c r="J20" s="50"/>
       <c r="K20" s="83"/>
     </row>
-    <row r="21" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="100"/>
-      <c r="B21" s="334"/>
+      <c r="B21" s="324"/>
       <c r="C21" s="50"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
@@ -7468,7 +7468,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="255" t="s">
         <v>48</v>
       </c>
@@ -7488,15 +7488,15 @@
       <c r="I22" s="26"/>
       <c r="J22" s="50"/>
       <c r="K22" s="83"/>
-      <c r="L22" s="315" t="s">
+      <c r="L22" s="355" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="316"/>
+      <c r="M22" s="297"/>
       <c r="O22">
         <v>52.274999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="23"/>
       <c r="C23" s="51">
@@ -7530,7 +7530,7 @@
         <v>54.75</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="23"/>
       <c r="C24" s="51" t="s">
@@ -7552,7 +7552,7 @@
       <c r="J24" s="50"/>
       <c r="K24" s="83"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="23"/>
       <c r="C25" s="51"/>
@@ -7564,17 +7564,17 @@
       <c r="I25" s="179"/>
       <c r="J25" s="50"/>
       <c r="K25" s="83"/>
-      <c r="M25" s="316"/>
-      <c r="N25" s="316"/>
-    </row>
-    <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M25" s="297"/>
+      <c r="N25" s="297"/>
+    </row>
+    <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="310" t="s">
+      <c r="C26" s="308" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="311"/>
-      <c r="E26" s="311"/>
+      <c r="D26" s="309"/>
+      <c r="E26" s="309"/>
       <c r="F26" s="33"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26">
@@ -7587,14 +7587,14 @@
       <c r="J26" s="50"/>
       <c r="K26" s="83"/>
     </row>
-    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="178"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="310" t="s">
+      <c r="C27" s="308" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="311"/>
-      <c r="E27" s="311"/>
+      <c r="D27" s="309"/>
+      <c r="E27" s="309"/>
       <c r="F27" s="179"/>
       <c r="G27" s="179"/>
       <c r="H27" s="98">
@@ -7607,7 +7607,7 @@
       <c r="J27" s="103"/>
       <c r="K27" s="104"/>
     </row>
-    <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="97"/>
       <c r="C28" s="134"/>
@@ -7615,14 +7615,14 @@
       <c r="J28" s="202"/>
       <c r="K28" s="210"/>
     </row>
-    <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="277"/>
       <c r="B29" s="278"/>
-      <c r="C29" s="327" t="s">
+      <c r="C29" s="340" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="328"/>
-      <c r="E29" s="328"/>
+      <c r="D29" s="341"/>
+      <c r="E29" s="341"/>
       <c r="F29" s="279"/>
       <c r="G29" s="21" t="s">
         <v>20</v>
@@ -7639,7 +7639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>56</v>
       </c>
@@ -7661,7 +7661,7 @@
       <c r="J30" s="50"/>
       <c r="K30" s="83"/>
     </row>
-    <row r="31" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="97"/>
       <c r="C31" s="51">
@@ -7689,7 +7689,7 @@
       <c r="J31" s="50"/>
       <c r="K31" s="83"/>
     </row>
-    <row r="32" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="97"/>
       <c r="C32" s="51" t="s">
@@ -7711,14 +7711,14 @@
       <c r="J32" s="50"/>
       <c r="K32" s="83"/>
     </row>
-    <row r="33" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="97"/>
-      <c r="C33" s="310" t="s">
+      <c r="C33" s="308" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="311"/>
-      <c r="E33" s="311"/>
+      <c r="D33" s="309"/>
+      <c r="E33" s="309"/>
       <c r="F33" s="33"/>
       <c r="G33" s="26"/>
       <c r="H33" s="244">
@@ -7731,14 +7731,14 @@
       <c r="J33" s="50"/>
       <c r="K33" s="83"/>
     </row>
-    <row r="34" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="97"/>
-      <c r="C34" s="310" t="s">
+      <c r="C34" s="308" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="311"/>
-      <c r="E34" s="311"/>
+      <c r="D34" s="309"/>
+      <c r="E34" s="309"/>
       <c r="F34" s="209"/>
       <c r="G34" s="209"/>
       <c r="H34" s="98">
@@ -7751,7 +7751,7 @@
       <c r="J34" s="50"/>
       <c r="K34" s="83"/>
     </row>
-    <row r="35" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="97"/>
       <c r="C35" s="249"/>
@@ -7768,26 +7768,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101" t="s">
         <v>114</v>
       </c>
       <c r="B36" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="305" t="s">
+      <c r="C36" s="310" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="306"/>
-      <c r="E36" s="306"/>
-      <c r="F36" s="306"/>
-      <c r="G36" s="306"/>
-      <c r="H36" s="306"/>
+      <c r="D36" s="311"/>
+      <c r="E36" s="311"/>
+      <c r="F36" s="311"/>
+      <c r="G36" s="311"/>
+      <c r="H36" s="311"/>
       <c r="I36" s="98"/>
       <c r="J36" s="103"/>
       <c r="K36" s="104"/>
     </row>
-    <row r="37" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="97"/>
       <c r="C37" s="69" t="s">
@@ -7807,7 +7807,7 @@
       <c r="J37" s="103"/>
       <c r="K37" s="104"/>
     </row>
-    <row r="38" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="97"/>
       <c r="C38" s="69" t="s">
@@ -7826,7 +7826,7 @@
       <c r="J38" s="103"/>
       <c r="K38" s="104"/>
     </row>
-    <row r="39" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="97"/>
       <c r="C39" s="69"/>
@@ -7844,24 +7844,24 @@
       <c r="J39" s="103"/>
       <c r="K39" s="104"/>
     </row>
-    <row r="40" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="97"/>
-      <c r="C40" s="305" t="s">
+      <c r="C40" s="310" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="306"/>
-      <c r="E40" s="306"/>
-      <c r="F40" s="304" t="s">
+      <c r="D40" s="311"/>
+      <c r="E40" s="311"/>
+      <c r="F40" s="335" t="s">
         <v>166</v>
       </c>
-      <c r="G40" s="304"/>
-      <c r="H40" s="304"/>
+      <c r="G40" s="335"/>
+      <c r="H40" s="335"/>
       <c r="I40" s="142"/>
       <c r="J40" s="103"/>
       <c r="K40" s="104"/>
     </row>
-    <row r="41" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="97"/>
       <c r="C41" s="246"/>
@@ -7879,24 +7879,24 @@
       <c r="J41" s="103"/>
       <c r="K41" s="104"/>
     </row>
-    <row r="42" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="97"/>
-      <c r="C42" s="305" t="s">
+      <c r="C42" s="310" t="s">
         <v>164</v>
       </c>
-      <c r="D42" s="306"/>
-      <c r="E42" s="306"/>
-      <c r="F42" s="304" t="s">
+      <c r="D42" s="311"/>
+      <c r="E42" s="311"/>
+      <c r="F42" s="335" t="s">
         <v>167</v>
       </c>
-      <c r="G42" s="304"/>
-      <c r="H42" s="304"/>
-      <c r="I42" s="307"/>
+      <c r="G42" s="335"/>
+      <c r="H42" s="335"/>
+      <c r="I42" s="356"/>
       <c r="J42" s="103"/>
       <c r="K42" s="104"/>
     </row>
-    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="97"/>
       <c r="C43" s="246"/>
@@ -7914,14 +7914,14 @@
       <c r="J43" s="103"/>
       <c r="K43" s="104"/>
     </row>
-    <row r="44" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="97"/>
-      <c r="C44" s="305" t="s">
+      <c r="C44" s="310" t="s">
         <v>165</v>
       </c>
-      <c r="D44" s="306"/>
-      <c r="E44" s="306"/>
+      <c r="D44" s="311"/>
+      <c r="E44" s="311"/>
       <c r="F44" s="244">
         <f>(F41+F43)/2</f>
         <v>34.038333333333334</v>
@@ -7934,7 +7934,7 @@
       <c r="J44" s="103"/>
       <c r="K44" s="104"/>
     </row>
-    <row r="45" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="97"/>
       <c r="C45" s="69" t="s">
@@ -7949,7 +7949,7 @@
       <c r="J45" s="103"/>
       <c r="K45" s="104"/>
     </row>
-    <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="97"/>
       <c r="C46" s="69">
@@ -7977,15 +7977,15 @@
       <c r="J46" s="103"/>
       <c r="K46" s="104"/>
     </row>
-    <row r="47" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="97"/>
-      <c r="C47" s="305" t="s">
+      <c r="C47" s="310" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="306"/>
-      <c r="E47" s="306"/>
-      <c r="F47" s="306"/>
+      <c r="D47" s="311"/>
+      <c r="E47" s="311"/>
+      <c r="F47" s="311"/>
       <c r="G47" s="208" t="s">
         <v>20</v>
       </c>
@@ -7999,14 +7999,14 @@
       <c r="J47" s="103"/>
       <c r="K47" s="104"/>
     </row>
-    <row r="48" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="97"/>
-      <c r="C48" s="310" t="s">
+      <c r="C48" s="308" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="311"/>
-      <c r="E48" s="311"/>
+      <c r="D48" s="309"/>
+      <c r="E48" s="309"/>
       <c r="F48" s="164"/>
       <c r="G48" s="164"/>
       <c r="H48" s="161">
@@ -8019,14 +8019,14 @@
       <c r="J48" s="103"/>
       <c r="K48" s="104"/>
     </row>
-    <row r="49" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="97"/>
-      <c r="C49" s="329" t="s">
+      <c r="C49" s="333" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="330"/>
-      <c r="E49" s="330"/>
+      <c r="D49" s="334"/>
+      <c r="E49" s="334"/>
       <c r="F49" s="191"/>
       <c r="G49" s="191"/>
       <c r="H49" s="190"/>
@@ -8034,7 +8034,7 @@
       <c r="J49" s="103"/>
       <c r="K49" s="104"/>
     </row>
-    <row r="50" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="97"/>
       <c r="C50" s="246">
@@ -8060,27 +8060,27 @@
       <c r="J50" s="103"/>
       <c r="K50" s="104"/>
     </row>
-    <row r="51" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="97"/>
-      <c r="C51" s="310"/>
-      <c r="D51" s="311"/>
-      <c r="E51" s="311"/>
-      <c r="F51" s="311"/>
+      <c r="C51" s="308"/>
+      <c r="D51" s="309"/>
+      <c r="E51" s="309"/>
+      <c r="F51" s="309"/>
       <c r="G51" s="26"/>
       <c r="H51" s="161"/>
       <c r="I51" s="80"/>
       <c r="J51" s="103"/>
       <c r="K51" s="104"/>
     </row>
-    <row r="52" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="97"/>
-      <c r="C52" s="310" t="s">
+      <c r="C52" s="308" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="311"/>
-      <c r="E52" s="311"/>
+      <c r="D52" s="309"/>
+      <c r="E52" s="309"/>
       <c r="F52" s="174"/>
       <c r="G52" s="174"/>
       <c r="H52" s="190">
@@ -8097,15 +8097,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="314" t="s">
+      <c r="B53" s="321" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="300"/>
-      <c r="D53" s="301"/>
+      <c r="C53" s="342"/>
+      <c r="D53" s="343"/>
       <c r="E53" s="127"/>
       <c r="F53" s="59"/>
       <c r="G53" s="59"/>
@@ -8114,22 +8114,22 @@
       <c r="J53" s="49"/>
       <c r="K53" s="82"/>
     </row>
-    <row r="54" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="100"/>
-      <c r="B54" s="298"/>
-      <c r="C54" s="298"/>
-      <c r="D54" s="299"/>
-      <c r="E54" s="299"/>
-      <c r="F54" s="299"/>
-      <c r="G54" s="299"/>
-      <c r="H54" s="299"/>
+      <c r="B54" s="322"/>
+      <c r="C54" s="322"/>
+      <c r="D54" s="344"/>
+      <c r="E54" s="344"/>
+      <c r="F54" s="344"/>
+      <c r="G54" s="344"/>
+      <c r="H54" s="344"/>
       <c r="I54" s="80"/>
       <c r="J54" s="47"/>
       <c r="K54" s="83"/>
     </row>
-    <row r="55" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="100"/>
-      <c r="B55" s="298"/>
+      <c r="B55" s="322"/>
       <c r="C55" s="128"/>
       <c r="D55" s="114"/>
       <c r="E55" s="115"/>
@@ -8140,9 +8140,9 @@
       <c r="J55" s="47"/>
       <c r="K55" s="83"/>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="100"/>
-      <c r="B56" s="298"/>
+      <c r="B56" s="322"/>
       <c r="C56" s="128"/>
       <c r="D56" s="114"/>
       <c r="E56" s="116"/>
@@ -8153,17 +8153,17 @@
       <c r="J56" s="47"/>
       <c r="K56" s="83"/>
     </row>
-    <row r="57" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="255" t="s">
         <v>61</v>
       </c>
       <c r="B57" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="296" t="s">
+      <c r="C57" s="338" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="297"/>
+      <c r="D57" s="339"/>
       <c r="E57" s="86"/>
       <c r="F57" s="47"/>
       <c r="G57" s="47"/>
@@ -8172,13 +8172,13 @@
       <c r="J57" s="47"/>
       <c r="K57" s="83"/>
     </row>
-    <row r="58" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="74"/>
       <c r="B58" s="112"/>
-      <c r="C58" s="302" t="s">
+      <c r="C58" s="345" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="303"/>
+      <c r="D58" s="346"/>
       <c r="E58" s="118">
         <f>J52</f>
         <v>1524</v>
@@ -8202,7 +8202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="74"/>
       <c r="B59" s="112"/>
       <c r="C59" s="129"/>
@@ -8220,14 +8220,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="110"/>
       <c r="B60" s="113"/>
-      <c r="C60" s="296" t="s">
+      <c r="C60" s="338" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="297"/>
-      <c r="E60" s="297"/>
+      <c r="D60" s="339"/>
+      <c r="E60" s="339"/>
       <c r="F60" s="80" t="s">
         <v>20</v>
       </c>
@@ -8247,19 +8247,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="100" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="325" t="s">
+      <c r="C61" s="336" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="326"/>
-      <c r="E61" s="326"/>
-      <c r="F61" s="326"/>
+      <c r="D61" s="337"/>
+      <c r="E61" s="337"/>
+      <c r="F61" s="337"/>
       <c r="G61" s="24"/>
       <c r="H61" s="130">
         <f>J59*0.7</f>
@@ -8271,7 +8271,7 @@
       <c r="J61" s="131"/>
       <c r="K61" s="105"/>
     </row>
-    <row r="62" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="97"/>
       <c r="C62" s="69"/>
@@ -8291,15 +8291,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="243" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="314" t="s">
+      <c r="B63" s="321" t="s">
         <v>145</v>
       </c>
-      <c r="C63" s="300"/>
-      <c r="D63" s="301"/>
+      <c r="C63" s="342"/>
+      <c r="D63" s="343"/>
       <c r="E63" s="127"/>
       <c r="F63" s="59"/>
       <c r="G63" s="59"/>
@@ -8308,22 +8308,22 @@
       <c r="J63" s="85"/>
       <c r="K63" s="82"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="74"/>
-      <c r="B64" s="298"/>
-      <c r="C64" s="298"/>
-      <c r="D64" s="299"/>
-      <c r="E64" s="299"/>
-      <c r="F64" s="299"/>
-      <c r="G64" s="299"/>
-      <c r="H64" s="299"/>
+      <c r="B64" s="322"/>
+      <c r="C64" s="322"/>
+      <c r="D64" s="344"/>
+      <c r="E64" s="344"/>
+      <c r="F64" s="344"/>
+      <c r="G64" s="344"/>
+      <c r="H64" s="344"/>
       <c r="I64" s="80"/>
       <c r="J64" s="87"/>
       <c r="K64" s="83"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="74"/>
-      <c r="B65" s="298"/>
+      <c r="B65" s="322"/>
       <c r="C65" s="128"/>
       <c r="D65" s="114"/>
       <c r="E65" s="115"/>
@@ -8334,9 +8334,9 @@
       <c r="J65" s="87"/>
       <c r="K65" s="83"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="74"/>
-      <c r="B66" s="298"/>
+      <c r="B66" s="322"/>
       <c r="C66" s="134"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
@@ -8347,9 +8347,9 @@
       <c r="J66" s="87"/>
       <c r="K66" s="83"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="74"/>
-      <c r="B67" s="298"/>
+      <c r="B67" s="322"/>
       <c r="C67" s="134"/>
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
@@ -8360,9 +8360,9 @@
       <c r="J67" s="87"/>
       <c r="K67" s="83"/>
     </row>
-    <row r="68" spans="1:11" ht="2.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="74"/>
-      <c r="B68" s="298"/>
+      <c r="B68" s="322"/>
       <c r="C68" s="134"/>
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
@@ -8373,13 +8373,13 @@
       <c r="J68" s="87"/>
       <c r="K68" s="83"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="74"/>
       <c r="B69" s="112"/>
-      <c r="C69" s="296" t="s">
+      <c r="C69" s="338" t="s">
         <v>67</v>
       </c>
-      <c r="D69" s="297"/>
+      <c r="D69" s="339"/>
       <c r="E69" s="190"/>
       <c r="F69" s="47"/>
       <c r="G69" s="47"/>
@@ -8388,13 +8388,13 @@
       <c r="J69" s="87"/>
       <c r="K69" s="83"/>
     </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="74"/>
       <c r="B70" s="112"/>
-      <c r="C70" s="302" t="s">
+      <c r="C70" s="345" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="303"/>
+      <c r="D70" s="346"/>
       <c r="E70" s="118">
         <f>J29</f>
         <v>10635</v>
@@ -8415,13 +8415,13 @@
       </c>
       <c r="K70" s="83"/>
     </row>
-    <row r="71" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="74"/>
       <c r="B71" s="112"/>
-      <c r="C71" s="302" t="s">
+      <c r="C71" s="345" t="s">
         <v>63</v>
       </c>
-      <c r="D71" s="303"/>
+      <c r="D71" s="346"/>
       <c r="E71" s="118">
         <f>J35</f>
         <v>15068</v>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="K71" s="83"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A72" s="255" t="s">
         <v>146</v>
       </c>
@@ -8465,14 +8465,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="256"/>
       <c r="B73" s="274"/>
-      <c r="C73" s="317" t="s">
+      <c r="C73" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="D73" s="318"/>
-      <c r="E73" s="318"/>
+      <c r="D73" s="348"/>
+      <c r="E73" s="348"/>
       <c r="F73" s="90" t="s">
         <v>20</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="255" t="s">
         <v>66</v>
       </c>
@@ -8509,13 +8509,13 @@
       <c r="J74" s="87"/>
       <c r="K74" s="83"/>
     </row>
-    <row r="75" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="74"/>
       <c r="B75" s="112"/>
-      <c r="C75" s="296" t="s">
+      <c r="C75" s="338" t="s">
         <v>98</v>
       </c>
-      <c r="D75" s="297"/>
+      <c r="D75" s="339"/>
       <c r="E75" s="133"/>
       <c r="F75" s="123" t="s">
         <v>20</v>
@@ -8536,7 +8536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="197"/>
       <c r="B76" s="112"/>
       <c r="C76" s="192"/>
@@ -8549,11 +8549,11 @@
       <c r="J76" s="170"/>
       <c r="K76" s="83"/>
     </row>
-    <row r="77" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A77" s="253" t="s">
         <v>151</v>
       </c>
-      <c r="B77" s="308" t="s">
+      <c r="B77" s="357" t="s">
         <v>125</v>
       </c>
       <c r="C77" s="25"/>
@@ -8566,12 +8566,12 @@
       <c r="J77" s="81"/>
       <c r="K77" s="82"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="64"/>
-      <c r="B78" s="309"/>
-      <c r="C78" s="310"/>
-      <c r="D78" s="311"/>
-      <c r="E78" s="311"/>
+      <c r="B78" s="358"/>
+      <c r="C78" s="308"/>
+      <c r="D78" s="309"/>
+      <c r="E78" s="309"/>
       <c r="F78" s="26"/>
       <c r="G78" s="26"/>
       <c r="H78" s="26"/>
@@ -8579,25 +8579,25 @@
       <c r="J78" s="50"/>
       <c r="K78" s="83"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="64"/>
-      <c r="B79" s="309"/>
-      <c r="C79" s="310"/>
-      <c r="D79" s="311"/>
-      <c r="E79" s="311"/>
-      <c r="F79" s="311"/>
-      <c r="G79" s="311"/>
+      <c r="B79" s="358"/>
+      <c r="C79" s="308"/>
+      <c r="D79" s="309"/>
+      <c r="E79" s="309"/>
+      <c r="F79" s="309"/>
+      <c r="G79" s="309"/>
       <c r="H79" s="26"/>
       <c r="I79" s="26"/>
       <c r="J79" s="50"/>
       <c r="K79" s="83"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="64"/>
-      <c r="B80" s="309"/>
-      <c r="C80" s="310"/>
-      <c r="D80" s="311"/>
-      <c r="E80" s="311"/>
+      <c r="B80" s="358"/>
+      <c r="C80" s="308"/>
+      <c r="D80" s="309"/>
+      <c r="E80" s="309"/>
       <c r="F80" s="70"/>
       <c r="G80" s="26"/>
       <c r="H80" s="26"/>
@@ -8605,11 +8605,11 @@
       <c r="J80" s="50"/>
       <c r="K80" s="83"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="64"/>
-      <c r="B81" s="309"/>
-      <c r="C81" s="305"/>
-      <c r="D81" s="306"/>
+      <c r="B81" s="358"/>
+      <c r="C81" s="310"/>
+      <c r="D81" s="311"/>
       <c r="E81" s="71"/>
       <c r="F81" s="71"/>
       <c r="G81" s="68"/>
@@ -8618,9 +8618,9 @@
       <c r="J81" s="50"/>
       <c r="K81" s="83"/>
     </row>
-    <row r="82" spans="1:15" ht="156.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="64"/>
-      <c r="B82" s="309"/>
+      <c r="B82" s="358"/>
       <c r="C82" s="51"/>
       <c r="D82" s="26"/>
       <c r="E82" s="68"/>
@@ -8631,7 +8631,7 @@
       <c r="J82" s="50"/>
       <c r="K82" s="83"/>
     </row>
-    <row r="83" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="254" t="s">
         <v>117</v>
       </c>
@@ -8648,17 +8648,17 @@
       <c r="J83" s="50"/>
       <c r="K83" s="83"/>
     </row>
-    <row r="84" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="64"/>
       <c r="B84" s="72"/>
-      <c r="C84" s="310" t="s">
+      <c r="C84" s="308" t="s">
         <v>133</v>
       </c>
-      <c r="D84" s="311"/>
-      <c r="E84" s="311"/>
-      <c r="F84" s="311"/>
-      <c r="G84" s="311"/>
-      <c r="H84" s="311"/>
+      <c r="D84" s="309"/>
+      <c r="E84" s="309"/>
+      <c r="F84" s="309"/>
+      <c r="G84" s="309"/>
+      <c r="H84" s="309"/>
       <c r="I84" s="26"/>
       <c r="J84" s="50"/>
       <c r="K84" s="83"/>
@@ -8666,7 +8666,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="64"/>
       <c r="B85" s="72"/>
       <c r="C85" s="51" t="s">
@@ -8692,7 +8692,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="64"/>
       <c r="B86" s="72"/>
       <c r="C86" s="51">
@@ -8715,7 +8715,7 @@
         <v>55.87</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="64"/>
       <c r="B87" s="72"/>
       <c r="C87" s="51">
@@ -8743,7 +8743,7 @@
       <c r="J87" s="50"/>
       <c r="K87" s="83"/>
     </row>
-    <row r="88" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="64"/>
       <c r="B88" s="213"/>
       <c r="C88" s="51"/>
@@ -8756,7 +8756,7 @@
       <c r="J88" s="50"/>
       <c r="K88" s="83"/>
     </row>
-    <row r="89" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="64"/>
       <c r="B89" s="213"/>
       <c r="C89" s="51" t="s">
@@ -8778,7 +8778,7 @@
       <c r="J89" s="50"/>
       <c r="K89" s="83"/>
     </row>
-    <row r="90" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="64"/>
       <c r="B90" s="72"/>
       <c r="C90" s="51"/>
@@ -8791,16 +8791,16 @@
       <c r="J90" s="50"/>
       <c r="K90" s="83"/>
     </row>
-    <row r="91" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="64"/>
       <c r="B91" s="72"/>
-      <c r="C91" s="310" t="s">
+      <c r="C91" s="308" t="s">
         <v>119</v>
       </c>
-      <c r="D91" s="311"/>
-      <c r="E91" s="311"/>
-      <c r="F91" s="311"/>
-      <c r="G91" s="311"/>
+      <c r="D91" s="309"/>
+      <c r="E91" s="309"/>
+      <c r="F91" s="309"/>
+      <c r="G91" s="309"/>
       <c r="H91" s="26">
         <v>0.1333</v>
       </c>
@@ -8810,7 +8810,7 @@
       <c r="J91" s="50"/>
       <c r="K91" s="83"/>
     </row>
-    <row r="92" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="240"/>
       <c r="B92" s="282"/>
       <c r="C92" s="249"/>
@@ -8834,11 +8834,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="353" t="s">
+    <row r="93" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="296" t="s">
         <v>152</v>
       </c>
-      <c r="B93" s="309" t="s">
+      <c r="B93" s="358" t="s">
         <v>69</v>
       </c>
       <c r="C93" s="51"/>
@@ -8851,11 +8851,11 @@
       <c r="J93" s="50"/>
       <c r="K93" s="83"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94" s="353"/>
-      <c r="B94" s="309"/>
-      <c r="C94" s="310"/>
-      <c r="D94" s="311"/>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="296"/>
+      <c r="B94" s="358"/>
+      <c r="C94" s="308"/>
+      <c r="D94" s="309"/>
       <c r="E94" s="70"/>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
@@ -8864,24 +8864,24 @@
       <c r="J94" s="50"/>
       <c r="K94" s="83"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="353"/>
-      <c r="B95" s="309"/>
-      <c r="C95" s="310"/>
-      <c r="D95" s="311"/>
-      <c r="E95" s="311"/>
-      <c r="F95" s="311"/>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="296"/>
+      <c r="B95" s="358"/>
+      <c r="C95" s="308"/>
+      <c r="D95" s="309"/>
+      <c r="E95" s="309"/>
+      <c r="F95" s="309"/>
       <c r="G95" s="26"/>
       <c r="H95" s="26"/>
       <c r="I95" s="26"/>
       <c r="J95" s="50"/>
       <c r="K95" s="83"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="64"/>
-      <c r="B96" s="309"/>
-      <c r="C96" s="305"/>
-      <c r="D96" s="306"/>
+      <c r="B96" s="358"/>
+      <c r="C96" s="310"/>
+      <c r="D96" s="311"/>
       <c r="E96" s="26"/>
       <c r="F96" s="26"/>
       <c r="G96" s="26"/>
@@ -8890,9 +8890,9 @@
       <c r="J96" s="50"/>
       <c r="K96" s="83"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="64"/>
-      <c r="B97" s="309"/>
+      <c r="B97" s="358"/>
       <c r="C97" s="106"/>
       <c r="D97" s="71"/>
       <c r="E97" s="70"/>
@@ -8903,9 +8903,9 @@
       <c r="J97" s="50"/>
       <c r="K97" s="83"/>
     </row>
-    <row r="98" spans="1:11" ht="291" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="291" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="64"/>
-      <c r="B98" s="309"/>
+      <c r="B98" s="358"/>
       <c r="C98" s="106"/>
       <c r="D98" s="26"/>
       <c r="E98" s="70"/>
@@ -8916,20 +8916,20 @@
       <c r="J98" s="50"/>
       <c r="K98" s="83"/>
     </row>
-    <row r="99" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="48" x14ac:dyDescent="0.25">
       <c r="A99" s="163" t="s">
         <v>121</v>
       </c>
       <c r="B99" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="C99" s="323" t="s">
+      <c r="C99" s="353" t="s">
         <v>70</v>
       </c>
-      <c r="D99" s="324"/>
-      <c r="E99" s="324"/>
-      <c r="F99" s="324"/>
-      <c r="G99" s="324"/>
+      <c r="D99" s="354"/>
+      <c r="E99" s="354"/>
+      <c r="F99" s="354"/>
+      <c r="G99" s="354"/>
       <c r="H99" s="245">
         <f>J92</f>
         <v>5850</v>
@@ -8940,11 +8940,11 @@
       <c r="J99" s="202"/>
       <c r="K99" s="83"/>
     </row>
-    <row r="100" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="352" t="s">
+    <row r="100" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="295" t="s">
         <v>153</v>
       </c>
-      <c r="B100" s="314" t="s">
+      <c r="B100" s="321" t="s">
         <v>71</v>
       </c>
       <c r="C100" s="145"/>
@@ -8957,22 +8957,22 @@
       <c r="J100" s="85"/>
       <c r="K100" s="107"/>
     </row>
-    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="353"/>
-      <c r="B101" s="298"/>
-      <c r="C101" s="310"/>
-      <c r="D101" s="311"/>
-      <c r="E101" s="311"/>
-      <c r="F101" s="311"/>
-      <c r="G101" s="311"/>
-      <c r="H101" s="311"/>
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="296"/>
+      <c r="B101" s="322"/>
+      <c r="C101" s="308"/>
+      <c r="D101" s="309"/>
+      <c r="E101" s="309"/>
+      <c r="F101" s="309"/>
+      <c r="G101" s="309"/>
+      <c r="H101" s="309"/>
       <c r="I101" s="142"/>
       <c r="J101" s="87"/>
       <c r="K101" s="149"/>
     </row>
-    <row r="102" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="353"/>
-      <c r="B102" s="298"/>
+    <row r="102" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="296"/>
+      <c r="B102" s="322"/>
       <c r="C102" s="233" t="s">
         <v>58</v>
       </c>
@@ -8990,9 +8990,9 @@
       <c r="J102" s="87"/>
       <c r="K102" s="149"/>
     </row>
-    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="353"/>
-      <c r="B103" s="298"/>
+    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="296"/>
+      <c r="B103" s="322"/>
       <c r="C103" s="233" t="s">
         <v>59</v>
       </c>
@@ -9009,9 +9009,9 @@
       <c r="J103" s="87"/>
       <c r="K103" s="149"/>
     </row>
-    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="353"/>
-      <c r="B104" s="298"/>
+    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="296"/>
+      <c r="B104" s="322"/>
       <c r="C104" s="233"/>
       <c r="D104" s="234"/>
       <c r="E104" s="234">
@@ -9027,26 +9027,26 @@
       <c r="J104" s="87"/>
       <c r="K104" s="149"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="353"/>
-      <c r="B105" s="298"/>
-      <c r="C105" s="305" t="s">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="296"/>
+      <c r="B105" s="322"/>
+      <c r="C105" s="310" t="s">
         <v>163</v>
       </c>
-      <c r="D105" s="306"/>
-      <c r="E105" s="306"/>
-      <c r="F105" s="304" t="s">
+      <c r="D105" s="311"/>
+      <c r="E105" s="311"/>
+      <c r="F105" s="335" t="s">
         <v>166</v>
       </c>
-      <c r="G105" s="304"/>
-      <c r="H105" s="304"/>
+      <c r="G105" s="335"/>
+      <c r="H105" s="335"/>
       <c r="I105" s="142"/>
       <c r="J105" s="87"/>
       <c r="K105" s="149"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="353"/>
-      <c r="B106" s="298"/>
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="296"/>
+      <c r="B106" s="322"/>
       <c r="C106" s="246"/>
       <c r="D106" s="247"/>
       <c r="E106" s="247"/>
@@ -9062,26 +9062,26 @@
       <c r="J106" s="87"/>
       <c r="K106" s="149"/>
     </row>
-    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="353"/>
-      <c r="B107" s="298"/>
-      <c r="C107" s="305" t="s">
+    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="296"/>
+      <c r="B107" s="322"/>
+      <c r="C107" s="310" t="s">
         <v>164</v>
       </c>
-      <c r="D107" s="306"/>
-      <c r="E107" s="306"/>
-      <c r="F107" s="304" t="s">
+      <c r="D107" s="311"/>
+      <c r="E107" s="311"/>
+      <c r="F107" s="335" t="s">
         <v>167</v>
       </c>
-      <c r="G107" s="304"/>
-      <c r="H107" s="304"/>
-      <c r="I107" s="307"/>
+      <c r="G107" s="335"/>
+      <c r="H107" s="335"/>
+      <c r="I107" s="356"/>
       <c r="J107" s="87"/>
       <c r="K107" s="149"/>
     </row>
-    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="353"/>
-      <c r="B108" s="298"/>
+    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="296"/>
+      <c r="B108" s="322"/>
       <c r="C108" s="246"/>
       <c r="D108" s="247"/>
       <c r="E108" s="247"/>
@@ -9097,14 +9097,14 @@
       <c r="J108" s="87"/>
       <c r="K108" s="149"/>
     </row>
-    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="353"/>
-      <c r="B109" s="298"/>
-      <c r="C109" s="305" t="s">
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="296"/>
+      <c r="B109" s="322"/>
+      <c r="C109" s="310" t="s">
         <v>165</v>
       </c>
-      <c r="D109" s="306"/>
-      <c r="E109" s="306"/>
+      <c r="D109" s="311"/>
+      <c r="E109" s="311"/>
       <c r="F109" s="244">
         <f>(F106+F108)/2</f>
         <v>34.038333333333334</v>
@@ -9117,13 +9117,13 @@
       <c r="J109" s="87"/>
       <c r="K109" s="149"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="353"/>
-      <c r="B110" s="298"/>
-      <c r="C110" s="321" t="s">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="296"/>
+      <c r="B110" s="322"/>
+      <c r="C110" s="351" t="s">
         <v>67</v>
       </c>
-      <c r="D110" s="322"/>
+      <c r="D110" s="352"/>
       <c r="E110" s="151"/>
       <c r="F110" s="150"/>
       <c r="G110" s="114"/>
@@ -9132,9 +9132,9 @@
       <c r="J110" s="87"/>
       <c r="K110" s="149"/>
     </row>
-    <row r="111" spans="1:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="353"/>
-      <c r="B111" s="298"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="296"/>
+      <c r="B111" s="322"/>
       <c r="C111" s="88">
         <f>F109</f>
         <v>34.038333333333334</v>
@@ -9164,7 +9164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="251" t="s">
         <v>72</v>
       </c>
@@ -9188,11 +9188,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="352" t="s">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="295" t="s">
         <v>154</v>
       </c>
-      <c r="B113" s="312" t="s">
+      <c r="B113" s="359" t="s">
         <v>75</v>
       </c>
       <c r="C113" s="51"/>
@@ -9205,22 +9205,22 @@
       <c r="J113" s="48"/>
       <c r="K113" s="83"/>
     </row>
-    <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="353"/>
-      <c r="B114" s="313"/>
-      <c r="C114" s="310"/>
-      <c r="D114" s="311"/>
-      <c r="E114" s="311"/>
-      <c r="F114" s="311"/>
-      <c r="G114" s="311"/>
-      <c r="H114" s="311"/>
+    <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="296"/>
+      <c r="B114" s="360"/>
+      <c r="C114" s="308"/>
+      <c r="D114" s="309"/>
+      <c r="E114" s="309"/>
+      <c r="F114" s="309"/>
+      <c r="G114" s="309"/>
+      <c r="H114" s="309"/>
       <c r="I114" s="142"/>
       <c r="J114" s="87"/>
       <c r="K114" s="149"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="353"/>
-      <c r="B115" s="313"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="296"/>
+      <c r="B115" s="360"/>
       <c r="C115" s="233" t="s">
         <v>58</v>
       </c>
@@ -9238,9 +9238,9 @@
       <c r="J115" s="87"/>
       <c r="K115" s="149"/>
     </row>
-    <row r="116" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A116" s="353"/>
-      <c r="B116" s="313"/>
+    <row r="116" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A116" s="296"/>
+      <c r="B116" s="360"/>
       <c r="C116" s="233" t="s">
         <v>59</v>
       </c>
@@ -9257,9 +9257,9 @@
       <c r="J116" s="87"/>
       <c r="K116" s="149"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="353"/>
-      <c r="B117" s="313"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="296"/>
+      <c r="B117" s="360"/>
       <c r="C117" s="233"/>
       <c r="D117" s="234"/>
       <c r="E117" s="234">
@@ -9275,26 +9275,26 @@
       <c r="J117" s="87"/>
       <c r="K117" s="149"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="353"/>
-      <c r="B118" s="313"/>
-      <c r="C118" s="305" t="s">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="296"/>
+      <c r="B118" s="360"/>
+      <c r="C118" s="310" t="s">
         <v>171</v>
       </c>
-      <c r="D118" s="306"/>
-      <c r="E118" s="306"/>
-      <c r="F118" s="304" t="s">
+      <c r="D118" s="311"/>
+      <c r="E118" s="311"/>
+      <c r="F118" s="335" t="s">
         <v>166</v>
       </c>
-      <c r="G118" s="304"/>
-      <c r="H118" s="304"/>
+      <c r="G118" s="335"/>
+      <c r="H118" s="335"/>
       <c r="I118" s="142"/>
       <c r="J118" s="87"/>
       <c r="K118" s="149"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="353"/>
-      <c r="B119" s="313"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="296"/>
+      <c r="B119" s="360"/>
       <c r="C119" s="246"/>
       <c r="D119" s="247"/>
       <c r="E119" s="247"/>
@@ -9311,26 +9311,26 @@
       <c r="J119" s="87"/>
       <c r="K119" s="149"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="353"/>
-      <c r="B120" s="313"/>
-      <c r="C120" s="305" t="s">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="296"/>
+      <c r="B120" s="360"/>
+      <c r="C120" s="310" t="s">
         <v>170</v>
       </c>
-      <c r="D120" s="306"/>
-      <c r="E120" s="306"/>
-      <c r="F120" s="304" t="s">
+      <c r="D120" s="311"/>
+      <c r="E120" s="311"/>
+      <c r="F120" s="335" t="s">
         <v>167</v>
       </c>
-      <c r="G120" s="304"/>
-      <c r="H120" s="304"/>
-      <c r="I120" s="307"/>
+      <c r="G120" s="335"/>
+      <c r="H120" s="335"/>
+      <c r="I120" s="356"/>
       <c r="J120" s="87"/>
       <c r="K120" s="149"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="353"/>
-      <c r="B121" s="313"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="296"/>
+      <c r="B121" s="360"/>
       <c r="C121" s="246"/>
       <c r="D121" s="247"/>
       <c r="E121" s="247"/>
@@ -9347,14 +9347,14 @@
       <c r="J121" s="87"/>
       <c r="K121" s="149"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="353"/>
-      <c r="B122" s="313"/>
-      <c r="C122" s="305" t="s">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="296"/>
+      <c r="B122" s="360"/>
+      <c r="C122" s="310" t="s">
         <v>168</v>
       </c>
-      <c r="D122" s="306"/>
-      <c r="E122" s="306"/>
+      <c r="D122" s="311"/>
+      <c r="E122" s="311"/>
       <c r="F122" s="244">
         <f>(H119+H121)/2</f>
         <v>34.038333333333334</v>
@@ -9367,9 +9367,9 @@
       <c r="J122" s="87"/>
       <c r="K122" s="149"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="353"/>
-      <c r="B123" s="313"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="296"/>
+      <c r="B123" s="360"/>
       <c r="C123" s="246"/>
       <c r="D123" s="247"/>
       <c r="E123" s="247"/>
@@ -9380,13 +9380,13 @@
       <c r="J123" s="87"/>
       <c r="K123" s="149"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="353"/>
-      <c r="B124" s="313"/>
-      <c r="C124" s="321" t="s">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="296"/>
+      <c r="B124" s="360"/>
+      <c r="C124" s="351" t="s">
         <v>67</v>
       </c>
-      <c r="D124" s="322"/>
+      <c r="D124" s="352"/>
       <c r="E124" s="151"/>
       <c r="F124" s="220"/>
       <c r="G124" s="114"/>
@@ -9395,9 +9395,9 @@
       <c r="J124" s="87"/>
       <c r="K124" s="149"/>
     </row>
-    <row r="125" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="353"/>
-      <c r="B125" s="313"/>
+    <row r="125" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="296"/>
+      <c r="B125" s="360"/>
       <c r="C125" s="222">
         <f>F122</f>
         <v>34.038333333333334</v>
@@ -9427,7 +9427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="152" t="s">
         <v>78</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="139"/>
       <c r="B127" s="139"/>
       <c r="C127" s="20" t="s">
@@ -9473,7 +9473,7 @@
       <c r="J127" s="153"/>
       <c r="K127" s="84"/>
     </row>
-    <row r="128" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="152" t="s">
         <v>79</v>
       </c>
@@ -9490,15 +9490,15 @@
       <c r="J128" s="48"/>
       <c r="K128" s="83"/>
     </row>
-    <row r="129" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="139"/>
       <c r="B129" s="139"/>
-      <c r="C129" s="319" t="s">
+      <c r="C129" s="349" t="s">
         <v>80</v>
       </c>
-      <c r="D129" s="320"/>
-      <c r="E129" s="320"/>
-      <c r="F129" s="320"/>
+      <c r="D129" s="350"/>
+      <c r="E129" s="350"/>
+      <c r="F129" s="350"/>
       <c r="G129" s="21"/>
       <c r="H129" s="154">
         <f>E127</f>
@@ -9510,11 +9510,11 @@
       <c r="J129" s="153"/>
       <c r="K129" s="84"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130" s="352" t="s">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="295" t="s">
         <v>155</v>
       </c>
-      <c r="B130" s="360" t="s">
+      <c r="B130" s="306" t="s">
         <v>124</v>
       </c>
       <c r="C130" s="51"/>
@@ -9527,9 +9527,9 @@
       <c r="J130" s="48"/>
       <c r="K130" s="83"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" s="353"/>
-      <c r="B131" s="361"/>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="296"/>
+      <c r="B131" s="307"/>
       <c r="C131" s="51"/>
       <c r="D131" s="26"/>
       <c r="E131" s="76"/>
@@ -9540,9 +9540,9 @@
       <c r="J131" s="48"/>
       <c r="K131" s="83"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A132" s="353"/>
-      <c r="B132" s="361"/>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="296"/>
+      <c r="B132" s="307"/>
       <c r="C132" s="51"/>
       <c r="D132" s="26"/>
       <c r="E132" s="76"/>
@@ -9553,9 +9553,9 @@
       <c r="J132" s="48"/>
       <c r="K132" s="83"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A133" s="353"/>
-      <c r="B133" s="361"/>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="296"/>
+      <c r="B133" s="307"/>
       <c r="C133" s="51"/>
       <c r="D133" s="26"/>
       <c r="E133" s="76"/>
@@ -9566,9 +9566,9 @@
       <c r="J133" s="48"/>
       <c r="K133" s="83"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A134" s="353"/>
-      <c r="B134" s="361"/>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="296"/>
+      <c r="B134" s="307"/>
       <c r="C134" s="51"/>
       <c r="D134" s="26"/>
       <c r="E134" s="76"/>
@@ -9579,9 +9579,9 @@
       <c r="J134" s="48"/>
       <c r="K134" s="83"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A135" s="353"/>
-      <c r="B135" s="361"/>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="296"/>
+      <c r="B135" s="307"/>
       <c r="C135" s="51"/>
       <c r="D135" s="26"/>
       <c r="E135" s="76"/>
@@ -9592,9 +9592,9 @@
       <c r="J135" s="48"/>
       <c r="K135" s="83"/>
     </row>
-    <row r="136" spans="1:13" ht="339.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="353"/>
-      <c r="B136" s="361"/>
+    <row r="136" spans="1:13" ht="339.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="296"/>
+      <c r="B136" s="307"/>
       <c r="C136" s="51"/>
       <c r="D136" s="26"/>
       <c r="E136" s="76"/>
@@ -9605,7 +9605,7 @@
       <c r="J136" s="48"/>
       <c r="K136" s="83"/>
     </row>
-    <row r="137" spans="1:13" ht="96" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="84" x14ac:dyDescent="0.25">
       <c r="A137" s="152" t="s">
         <v>81</v>
       </c>
@@ -9622,14 +9622,14 @@
       <c r="J137" s="48"/>
       <c r="K137" s="83"/>
     </row>
-    <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="134"/>
       <c r="B138" s="134"/>
-      <c r="C138" s="305" t="s">
+      <c r="C138" s="310" t="s">
         <v>172</v>
       </c>
-      <c r="D138" s="306"/>
-      <c r="E138" s="306"/>
+      <c r="D138" s="311"/>
+      <c r="E138" s="311"/>
       <c r="F138" s="244">
         <f>F122+1.25</f>
         <v>35.288333333333334</v>
@@ -9642,7 +9642,7 @@
       <c r="J138" s="48"/>
       <c r="K138" s="83"/>
     </row>
-    <row r="139" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="134"/>
       <c r="B139" s="134"/>
       <c r="C139" s="236" t="s">
@@ -9662,7 +9662,7 @@
       <c r="J139" s="48"/>
       <c r="K139" s="83"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="134"/>
       <c r="B140" s="134"/>
       <c r="C140" s="215"/>
@@ -9675,7 +9675,7 @@
       <c r="J140" s="48"/>
       <c r="K140" s="83"/>
     </row>
-    <row r="141" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A141" s="134"/>
       <c r="B141" s="134"/>
       <c r="C141" s="51" t="s">
@@ -9690,18 +9690,18 @@
       <c r="J141" s="48"/>
       <c r="K141" s="83"/>
     </row>
-    <row r="142" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="134"/>
       <c r="B142" s="134"/>
-      <c r="C142" s="310" t="s">
+      <c r="C142" s="308" t="s">
         <v>157</v>
       </c>
-      <c r="D142" s="311"/>
-      <c r="E142" s="311"/>
-      <c r="F142" s="311"/>
-      <c r="G142" s="311"/>
-      <c r="H142" s="311"/>
-      <c r="I142" s="311"/>
+      <c r="D142" s="309"/>
+      <c r="E142" s="309"/>
+      <c r="F142" s="309"/>
+      <c r="G142" s="309"/>
+      <c r="H142" s="309"/>
+      <c r="I142" s="309"/>
       <c r="J142" s="48"/>
       <c r="K142" s="83"/>
       <c r="M142">
@@ -9709,7 +9709,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="134"/>
       <c r="B143" s="134"/>
       <c r="C143" s="51"/>
@@ -9728,7 +9728,7 @@
       <c r="J143" s="48"/>
       <c r="K143" s="83"/>
     </row>
-    <row r="144" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="134"/>
       <c r="B144" s="134"/>
       <c r="C144" s="51"/>
@@ -9741,7 +9741,7 @@
       <c r="J144" s="48"/>
       <c r="K144" s="83"/>
     </row>
-    <row r="145" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="134"/>
       <c r="B145" s="134"/>
       <c r="C145" s="51" t="s">
@@ -9771,7 +9771,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="134"/>
       <c r="B146" s="134"/>
       <c r="C146" s="51"/>
@@ -9784,7 +9784,7 @@
       <c r="J146" s="48"/>
       <c r="K146" s="83"/>
     </row>
-    <row r="147" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="134"/>
       <c r="B147" s="134"/>
       <c r="C147" s="51" t="s">
@@ -9799,7 +9799,7 @@
       <c r="J147" s="48"/>
       <c r="K147" s="83"/>
     </row>
-    <row r="148" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="134"/>
       <c r="B148" s="134"/>
       <c r="C148" s="51"/>
@@ -9812,7 +9812,7 @@
       <c r="J148" s="48"/>
       <c r="K148" s="83"/>
     </row>
-    <row r="149" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="134"/>
       <c r="B149" s="134"/>
       <c r="C149" s="51" t="s">
@@ -9830,7 +9830,7 @@
       <c r="J149" s="48"/>
       <c r="K149" s="83"/>
     </row>
-    <row r="150" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="134"/>
       <c r="B150" s="134"/>
       <c r="C150" s="51" t="s">
@@ -9849,14 +9849,14 @@
       <c r="J150" s="48"/>
       <c r="K150" s="83"/>
     </row>
-    <row r="151" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="134"/>
       <c r="B151" s="134"/>
-      <c r="C151" s="310" t="s">
+      <c r="C151" s="308" t="s">
         <v>86</v>
       </c>
-      <c r="D151" s="311"/>
-      <c r="E151" s="311"/>
+      <c r="D151" s="309"/>
+      <c r="E151" s="309"/>
       <c r="F151" s="227">
         <f>E149/E150</f>
         <v>8.8220833333333335</v>
@@ -9871,7 +9871,7 @@
       <c r="J151" s="48"/>
       <c r="K151" s="83"/>
     </row>
-    <row r="152" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="134"/>
       <c r="B152" s="134"/>
       <c r="C152" s="51"/>
@@ -9884,7 +9884,7 @@
       <c r="J152" s="48"/>
       <c r="K152" s="83"/>
     </row>
-    <row r="153" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="134"/>
       <c r="B153" s="134"/>
       <c r="C153" s="51" t="s">
@@ -9899,7 +9899,7 @@
       <c r="J153" s="48"/>
       <c r="K153" s="83"/>
     </row>
-    <row r="154" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="134"/>
       <c r="B154" s="134"/>
       <c r="C154" s="51">
@@ -9931,7 +9931,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="134"/>
       <c r="B155" s="134"/>
       <c r="C155" s="51"/>
@@ -9944,7 +9944,7 @@
       <c r="J155" s="48"/>
       <c r="K155" s="83"/>
     </row>
-    <row r="156" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="134"/>
       <c r="B156" s="134"/>
       <c r="C156" s="20"/>
@@ -9964,11 +9964,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" s="352" t="s">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="295" t="s">
         <v>150</v>
       </c>
-      <c r="B157" s="354" t="s">
+      <c r="B157" s="300" t="s">
         <v>182</v>
       </c>
       <c r="C157" s="51"/>
@@ -9981,9 +9981,9 @@
       <c r="J157" s="156"/>
       <c r="K157" s="83"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A158" s="353"/>
-      <c r="B158" s="355"/>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="296"/>
+      <c r="B158" s="301"/>
       <c r="C158" s="51"/>
       <c r="D158" s="26"/>
       <c r="E158" s="76"/>
@@ -9994,9 +9994,9 @@
       <c r="J158" s="156"/>
       <c r="K158" s="83"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159" s="353"/>
-      <c r="B159" s="355"/>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="296"/>
+      <c r="B159" s="301"/>
       <c r="C159" s="51"/>
       <c r="D159" s="26"/>
       <c r="E159" s="76"/>
@@ -10007,9 +10007,9 @@
       <c r="J159" s="156"/>
       <c r="K159" s="83"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" s="353"/>
-      <c r="B160" s="355"/>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="296"/>
+      <c r="B160" s="301"/>
       <c r="C160" s="51"/>
       <c r="D160" s="26"/>
       <c r="E160" s="76"/>
@@ -10020,9 +10020,9 @@
       <c r="J160" s="156"/>
       <c r="K160" s="83"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A161" s="353"/>
-      <c r="B161" s="355"/>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="296"/>
+      <c r="B161" s="301"/>
       <c r="C161" s="51"/>
       <c r="D161" s="26"/>
       <c r="E161" s="76"/>
@@ -10033,9 +10033,9 @@
       <c r="J161" s="156"/>
       <c r="K161" s="83"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A162" s="353"/>
-      <c r="B162" s="355"/>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="296"/>
+      <c r="B162" s="301"/>
       <c r="C162" s="51"/>
       <c r="D162" s="26"/>
       <c r="E162" s="76"/>
@@ -10046,9 +10046,9 @@
       <c r="J162" s="156"/>
       <c r="K162" s="83"/>
     </row>
-    <row r="163" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="353"/>
-      <c r="B163" s="355"/>
+    <row r="163" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="296"/>
+      <c r="B163" s="301"/>
       <c r="C163" s="51"/>
       <c r="D163" s="26"/>
       <c r="E163" s="76"/>
@@ -10059,18 +10059,18 @@
       <c r="J163" s="156"/>
       <c r="K163" s="83"/>
     </row>
-    <row r="164" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="158"/>
       <c r="B164" s="159"/>
       <c r="C164" s="20"/>
       <c r="D164" s="21"/>
-      <c r="E164" s="356" t="s">
+      <c r="E164" s="302" t="s">
         <v>89</v>
       </c>
-      <c r="F164" s="356"/>
-      <c r="G164" s="356"/>
-      <c r="H164" s="356"/>
-      <c r="I164" s="356"/>
+      <c r="F164" s="302"/>
+      <c r="G164" s="302"/>
+      <c r="H164" s="302"/>
+      <c r="I164" s="302"/>
       <c r="J164" s="157">
         <v>300</v>
       </c>
@@ -10078,11 +10078,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="230">
         <v>13</v>
       </c>
-      <c r="B165" s="357" t="s">
+      <c r="B165" s="303" t="s">
         <v>131</v>
       </c>
       <c r="C165" s="229"/>
@@ -10096,11 +10096,11 @@
       <c r="K165" s="27"/>
       <c r="L165" s="134"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="230" t="s">
         <v>130</v>
       </c>
-      <c r="B166" s="358"/>
+      <c r="B166" s="304"/>
       <c r="C166" s="229"/>
       <c r="D166" s="30"/>
       <c r="E166" s="30"/>
@@ -10112,9 +10112,9 @@
       <c r="K166" s="27"/>
       <c r="L166" s="134"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="168"/>
-      <c r="B167" s="358"/>
+      <c r="B167" s="304"/>
       <c r="C167" s="229"/>
       <c r="D167" s="30"/>
       <c r="E167" s="30"/>
@@ -10126,9 +10126,9 @@
       <c r="K167" s="27"/>
       <c r="L167" s="134"/>
     </row>
-    <row r="168" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
-      <c r="B168" s="359"/>
+      <c r="B168" s="305"/>
       <c r="C168" s="285"/>
       <c r="D168" s="286"/>
       <c r="E168" s="286"/>
@@ -10144,8 +10144,8 @@
       </c>
       <c r="L168" s="134"/>
     </row>
-    <row r="169" spans="1:12" ht="132" x14ac:dyDescent="0.3">
-      <c r="A169" s="331" t="s">
+    <row r="169" spans="1:12" ht="132" x14ac:dyDescent="0.25">
+      <c r="A169" s="298" t="s">
         <v>181</v>
       </c>
       <c r="B169" s="172" t="s">
@@ -10162,8 +10162,8 @@
       <c r="K169" s="27"/>
       <c r="L169" s="134"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A170" s="332"/>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="299"/>
       <c r="B170" s="23"/>
       <c r="C170" s="201"/>
       <c r="D170" s="30"/>
@@ -10176,7 +10176,7 @@
       <c r="K170" s="27"/>
       <c r="L170" s="134"/>
     </row>
-    <row r="171" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="99" t="s">
         <v>106</v>
       </c>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="L171" s="134"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="27"/>
       <c r="B172" s="28"/>
       <c r="C172" s="29"/>
@@ -10222,7 +10222,7 @@
       <c r="J172" s="30"/>
       <c r="K172" s="27"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="27"/>
       <c r="B173" s="28"/>
       <c r="C173" s="29"/>
@@ -10235,7 +10235,7 @@
       <c r="J173" s="30"/>
       <c r="K173" s="27"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="27"/>
       <c r="B174" s="28"/>
       <c r="C174" s="29"/>
@@ -10248,7 +10248,7 @@
       <c r="J174" s="30"/>
       <c r="K174" s="27"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="27"/>
       <c r="B175" s="28"/>
       <c r="C175" s="29"/>
@@ -10261,7 +10261,7 @@
       <c r="J175" s="30"/>
       <c r="K175" s="27"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="27"/>
       <c r="B176" s="28"/>
       <c r="C176" s="29"/>
@@ -10274,7 +10274,7 @@
       <c r="J176" s="30"/>
       <c r="K176" s="27"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="27"/>
       <c r="B177" s="28"/>
       <c r="C177" s="29"/>
@@ -10287,7 +10287,7 @@
       <c r="J177" s="30"/>
       <c r="K177" s="27"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="27"/>
       <c r="B178" s="28"/>
       <c r="C178" s="29"/>
@@ -10300,7 +10300,7 @@
       <c r="J178" s="30"/>
       <c r="K178" s="27"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="27"/>
       <c r="B179" s="28"/>
       <c r="C179" s="29"/>
@@ -10313,7 +10313,7 @@
       <c r="J179" s="30"/>
       <c r="K179" s="27"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="27"/>
       <c r="B180" s="28"/>
       <c r="C180" s="29"/>
@@ -10326,7 +10326,7 @@
       <c r="J180" s="30"/>
       <c r="K180" s="27"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="27"/>
       <c r="B181" s="28"/>
       <c r="C181" s="29"/>
@@ -10339,7 +10339,7 @@
       <c r="J181" s="30"/>
       <c r="K181" s="27"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="27"/>
       <c r="B182" s="28"/>
       <c r="C182" s="29"/>
@@ -10352,7 +10352,7 @@
       <c r="J182" s="30"/>
       <c r="K182" s="27"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="27"/>
       <c r="B183" s="28"/>
       <c r="C183" s="29"/>
@@ -10365,7 +10365,7 @@
       <c r="J183" s="30"/>
       <c r="K183" s="27"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="27"/>
       <c r="B184" s="28"/>
       <c r="C184" s="29"/>
@@ -10378,7 +10378,7 @@
       <c r="J184" s="30"/>
       <c r="K184" s="27"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="27"/>
       <c r="B185" s="28"/>
       <c r="C185" s="29"/>
@@ -10391,7 +10391,7 @@
       <c r="J185" s="30"/>
       <c r="K185" s="27"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="27"/>
       <c r="B186" s="28"/>
       <c r="C186" s="29"/>
@@ -10404,7 +10404,7 @@
       <c r="J186" s="30"/>
       <c r="K186" s="27"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="27"/>
       <c r="B187" s="28"/>
       <c r="C187" s="29"/>
@@ -10417,7 +10417,7 @@
       <c r="J187" s="30"/>
       <c r="K187" s="27"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="27"/>
       <c r="B188" s="28"/>
       <c r="C188" s="29"/>
@@ -10430,7 +10430,7 @@
       <c r="J188" s="30"/>
       <c r="K188" s="27"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="27"/>
       <c r="B189" s="28"/>
       <c r="C189" s="29"/>
@@ -10443,7 +10443,7 @@
       <c r="J189" s="30"/>
       <c r="K189" s="27"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="27"/>
       <c r="B190" s="28"/>
       <c r="C190" s="29"/>
@@ -10456,7 +10456,7 @@
       <c r="J190" s="30"/>
       <c r="K190" s="27"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="27"/>
       <c r="B191" s="28"/>
       <c r="C191" s="29"/>
@@ -10469,7 +10469,7 @@
       <c r="J191" s="30"/>
       <c r="K191" s="27"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="27"/>
       <c r="B192" s="28"/>
       <c r="C192" s="29"/>
@@ -10482,7 +10482,7 @@
       <c r="J192" s="30"/>
       <c r="K192" s="27"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="27"/>
       <c r="B193" s="28"/>
       <c r="C193" s="29"/>
@@ -10495,7 +10495,7 @@
       <c r="J193" s="30"/>
       <c r="K193" s="27"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="27"/>
       <c r="B194" s="28"/>
       <c r="C194" s="29"/>
@@ -10508,7 +10508,7 @@
       <c r="J194" s="30"/>
       <c r="K194" s="27"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="27"/>
       <c r="B195" s="28"/>
       <c r="C195" s="29"/>
@@ -10521,7 +10521,7 @@
       <c r="J195" s="30"/>
       <c r="K195" s="27"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="27"/>
       <c r="B196" s="28"/>
       <c r="C196" s="29"/>
@@ -10534,7 +10534,7 @@
       <c r="J196" s="30"/>
       <c r="K196" s="27"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="15"/>
       <c r="B197" s="15"/>
       <c r="C197" s="16"/>
@@ -10547,7 +10547,7 @@
       <c r="J197" s="30"/>
       <c r="K197" s="27"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="15"/>
       <c r="B198" s="15"/>
       <c r="C198" s="16"/>
@@ -10560,7 +10560,7 @@
       <c r="J198" s="30"/>
       <c r="K198" s="27"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="15"/>
       <c r="B199" s="15"/>
       <c r="C199" s="16"/>
@@ -10573,7 +10573,7 @@
       <c r="J199" s="30"/>
       <c r="K199" s="27"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="15"/>
       <c r="B200" s="15"/>
       <c r="C200" s="16"/>
@@ -10586,7 +10586,7 @@
       <c r="J200" s="30"/>
       <c r="K200" s="27"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="15"/>
       <c r="B201" s="15"/>
       <c r="C201" s="16"/>
@@ -10599,7 +10599,7 @@
       <c r="J201" s="30"/>
       <c r="K201" s="27"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="15"/>
       <c r="B202" s="15"/>
       <c r="C202" s="16"/>
@@ -10612,7 +10612,7 @@
       <c r="J202" s="30"/>
       <c r="K202" s="27"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="15"/>
       <c r="B203" s="15"/>
       <c r="C203" s="16"/>
@@ -10625,7 +10625,7 @@
       <c r="J203" s="30"/>
       <c r="K203" s="27"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="15"/>
       <c r="B204" s="15"/>
       <c r="C204" s="16"/>
@@ -10638,2010 +10638,2094 @@
       <c r="J204" s="30"/>
       <c r="K204" s="27"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J205" s="33"/>
       <c r="K205" s="33"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J206" s="33"/>
       <c r="K206" s="33"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J207" s="33"/>
       <c r="K207" s="33"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J208" s="33"/>
       <c r="K208" s="33"/>
     </row>
-    <row r="209" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J209" s="33"/>
       <c r="K209" s="33"/>
     </row>
-    <row r="210" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J210" s="33"/>
       <c r="K210" s="33"/>
     </row>
-    <row r="211" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J211" s="33"/>
       <c r="K211" s="33"/>
     </row>
-    <row r="212" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J212" s="33"/>
       <c r="K212" s="33"/>
     </row>
-    <row r="213" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J213" s="33"/>
       <c r="K213" s="33"/>
     </row>
-    <row r="214" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J214" s="33"/>
       <c r="K214" s="33"/>
     </row>
-    <row r="215" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J215" s="33"/>
       <c r="K215" s="33"/>
     </row>
-    <row r="216" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J216" s="33"/>
       <c r="K216" s="33"/>
     </row>
-    <row r="217" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J217" s="33"/>
       <c r="K217" s="33"/>
     </row>
-    <row r="218" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J218" s="33"/>
       <c r="K218" s="33"/>
     </row>
-    <row r="219" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J219" s="33"/>
       <c r="K219" s="33"/>
     </row>
-    <row r="220" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J220" s="33"/>
       <c r="K220" s="33"/>
     </row>
-    <row r="221" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J221" s="33"/>
       <c r="K221" s="33"/>
     </row>
-    <row r="222" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J222" s="33"/>
       <c r="K222" s="33"/>
     </row>
-    <row r="223" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J223" s="33"/>
       <c r="K223" s="33"/>
     </row>
-    <row r="224" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J224" s="33"/>
       <c r="K224" s="33"/>
     </row>
-    <row r="225" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J225" s="33"/>
       <c r="K225" s="33"/>
     </row>
-    <row r="226" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J226" s="33"/>
       <c r="K226" s="52"/>
     </row>
-    <row r="227" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J227" s="33"/>
     </row>
-    <row r="228" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J228" s="33"/>
     </row>
-    <row r="229" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J229" s="33"/>
     </row>
-    <row r="230" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J230" s="33"/>
     </row>
-    <row r="231" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J231" s="33"/>
     </row>
-    <row r="232" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J232" s="33"/>
     </row>
-    <row r="233" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J233" s="33"/>
     </row>
-    <row r="234" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J234" s="33"/>
     </row>
-    <row r="235" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J235" s="33"/>
     </row>
-    <row r="236" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J236" s="33"/>
     </row>
-    <row r="237" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J237" s="33"/>
     </row>
-    <row r="238" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J238" s="33"/>
     </row>
-    <row r="239" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J239" s="33"/>
     </row>
-    <row r="240" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J240" s="33"/>
     </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J241" s="33"/>
     </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J242" s="33"/>
     </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J243" s="33"/>
     </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J244" s="33"/>
     </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J245" s="33"/>
     </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J246" s="33"/>
     </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J247" s="33"/>
     </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J248" s="33"/>
     </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J249" s="33"/>
     </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J250" s="33"/>
     </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J251" s="33"/>
     </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J252" s="33"/>
     </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J253" s="33"/>
     </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J254" s="33"/>
     </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J255" s="33"/>
     </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J256" s="33"/>
     </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J257" s="33"/>
     </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J258" s="33"/>
     </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J259" s="33"/>
     </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J260" s="33"/>
     </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J261" s="33"/>
     </row>
-    <row r="262" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J262" s="33"/>
     </row>
-    <row r="263" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J263" s="33"/>
     </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J264" s="33"/>
     </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J265" s="33"/>
     </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J266" s="33"/>
     </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J267" s="33"/>
     </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J268" s="33"/>
     </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J269" s="33"/>
     </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J270" s="33"/>
     </row>
-    <row r="271" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J271" s="33"/>
     </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J272" s="33"/>
     </row>
-    <row r="273" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J273" s="33"/>
     </row>
-    <row r="274" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J274" s="33"/>
     </row>
-    <row r="275" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J275" s="33"/>
     </row>
-    <row r="276" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J276" s="33"/>
     </row>
-    <row r="277" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J277" s="33"/>
     </row>
-    <row r="278" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J278" s="33"/>
     </row>
-    <row r="279" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J279" s="33"/>
     </row>
-    <row r="280" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J280" s="33"/>
     </row>
-    <row r="281" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J281" s="33"/>
     </row>
-    <row r="282" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J282" s="33"/>
     </row>
-    <row r="283" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J283" s="33"/>
     </row>
-    <row r="284" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J284" s="33"/>
     </row>
-    <row r="285" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J285" s="33"/>
     </row>
-    <row r="286" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J286" s="33"/>
     </row>
-    <row r="287" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J287" s="33"/>
     </row>
-    <row r="288" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J288" s="33"/>
     </row>
-    <row r="289" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J289" s="33"/>
     </row>
-    <row r="290" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J290" s="33"/>
     </row>
-    <row r="291" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J291" s="33"/>
     </row>
-    <row r="292" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J292" s="33"/>
     </row>
-    <row r="293" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J293" s="33"/>
     </row>
-    <row r="294" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J294" s="33"/>
     </row>
-    <row r="295" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J295" s="33"/>
     </row>
-    <row r="296" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J296" s="33"/>
     </row>
-    <row r="297" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J297" s="33"/>
     </row>
-    <row r="298" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J298" s="33"/>
     </row>
-    <row r="299" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J299" s="33"/>
     </row>
-    <row r="300" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J300" s="33"/>
     </row>
-    <row r="301" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J301" s="33"/>
     </row>
-    <row r="302" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J302" s="33"/>
     </row>
-    <row r="303" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J303" s="33"/>
     </row>
-    <row r="304" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J304" s="33"/>
     </row>
-    <row r="305" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J305" s="33"/>
     </row>
-    <row r="306" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J306" s="33"/>
     </row>
-    <row r="307" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J307" s="33"/>
     </row>
-    <row r="308" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J308" s="33"/>
     </row>
-    <row r="309" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J309" s="33"/>
     </row>
-    <row r="310" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J310" s="33"/>
     </row>
-    <row r="311" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J311" s="33"/>
     </row>
-    <row r="312" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J312" s="33"/>
     </row>
-    <row r="313" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J313" s="33"/>
     </row>
-    <row r="314" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J314" s="33"/>
     </row>
-    <row r="315" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J315" s="33"/>
     </row>
-    <row r="316" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J316" s="33"/>
     </row>
-    <row r="317" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J317" s="33"/>
     </row>
-    <row r="318" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J318" s="33"/>
     </row>
-    <row r="319" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J319" s="33"/>
     </row>
-    <row r="320" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J320" s="33"/>
     </row>
-    <row r="321" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J321" s="33"/>
     </row>
-    <row r="322" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J322" s="33"/>
     </row>
-    <row r="323" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J323" s="33"/>
     </row>
-    <row r="324" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J324" s="33"/>
     </row>
-    <row r="325" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J325" s="33"/>
     </row>
-    <row r="326" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J326" s="33"/>
     </row>
-    <row r="327" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J327" s="33"/>
     </row>
-    <row r="328" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J328" s="33"/>
     </row>
-    <row r="329" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J329" s="33"/>
     </row>
-    <row r="330" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J330" s="33"/>
     </row>
-    <row r="331" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J331" s="33"/>
     </row>
-    <row r="332" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J332" s="33"/>
     </row>
-    <row r="333" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J333" s="33"/>
     </row>
-    <row r="334" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J334" s="33"/>
     </row>
-    <row r="335" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J335" s="33"/>
     </row>
-    <row r="336" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J336" s="33"/>
     </row>
-    <row r="337" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J337" s="33"/>
     </row>
-    <row r="338" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J338" s="33"/>
     </row>
-    <row r="339" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J339" s="33"/>
     </row>
-    <row r="340" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J340" s="33"/>
     </row>
-    <row r="341" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J341" s="33"/>
     </row>
-    <row r="342" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J342" s="33"/>
     </row>
-    <row r="343" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J343" s="33"/>
     </row>
-    <row r="344" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J344" s="33"/>
     </row>
-    <row r="345" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J345" s="33"/>
     </row>
-    <row r="346" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J346" s="33"/>
     </row>
-    <row r="347" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J347" s="33"/>
     </row>
-    <row r="348" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J348" s="33"/>
     </row>
-    <row r="349" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J349" s="33"/>
     </row>
-    <row r="350" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J350" s="33"/>
     </row>
-    <row r="351" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J351" s="33"/>
     </row>
-    <row r="352" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J352" s="33"/>
     </row>
-    <row r="353" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J353" s="33"/>
     </row>
-    <row r="354" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J354" s="33"/>
     </row>
-    <row r="355" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J355" s="33"/>
     </row>
-    <row r="356" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J356" s="33"/>
     </row>
-    <row r="357" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J357" s="33"/>
     </row>
-    <row r="358" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J358" s="33"/>
     </row>
-    <row r="359" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J359" s="33"/>
     </row>
-    <row r="360" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J360" s="33"/>
     </row>
-    <row r="361" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J361" s="33"/>
     </row>
-    <row r="362" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J362" s="33"/>
     </row>
-    <row r="363" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J363" s="33"/>
     </row>
-    <row r="364" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J364" s="33"/>
     </row>
-    <row r="365" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J365" s="33"/>
     </row>
-    <row r="366" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J366" s="33"/>
     </row>
-    <row r="367" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J367" s="33"/>
     </row>
-    <row r="368" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J368" s="33"/>
     </row>
-    <row r="369" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J369" s="33"/>
     </row>
-    <row r="370" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J370" s="33"/>
     </row>
-    <row r="371" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J371" s="33"/>
     </row>
-    <row r="372" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J372" s="33"/>
     </row>
-    <row r="373" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J373" s="33"/>
     </row>
-    <row r="374" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J374" s="33"/>
     </row>
-    <row r="375" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J375" s="33"/>
     </row>
-    <row r="376" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J376" s="33"/>
     </row>
-    <row r="377" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J377" s="33"/>
     </row>
-    <row r="378" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J378" s="33"/>
     </row>
-    <row r="379" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J379" s="33"/>
     </row>
-    <row r="380" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J380" s="33"/>
     </row>
-    <row r="381" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J381" s="33"/>
     </row>
-    <row r="382" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J382" s="33"/>
     </row>
-    <row r="383" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J383" s="33"/>
     </row>
-    <row r="384" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J384" s="33"/>
     </row>
-    <row r="385" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J385" s="33"/>
     </row>
-    <row r="386" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J386" s="33"/>
     </row>
-    <row r="387" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J387" s="33"/>
     </row>
-    <row r="388" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J388" s="33"/>
     </row>
-    <row r="389" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J389" s="33"/>
     </row>
-    <row r="390" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J390" s="33"/>
     </row>
-    <row r="391" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J391" s="33"/>
     </row>
-    <row r="392" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J392" s="33"/>
     </row>
-    <row r="393" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J393" s="33"/>
     </row>
-    <row r="394" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J394" s="33"/>
     </row>
-    <row r="395" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J395" s="33"/>
     </row>
-    <row r="396" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J396" s="33"/>
     </row>
-    <row r="397" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J397" s="33"/>
     </row>
-    <row r="398" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J398" s="33"/>
     </row>
-    <row r="399" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J399" s="33"/>
     </row>
-    <row r="400" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J400" s="33"/>
     </row>
-    <row r="401" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J401" s="33"/>
     </row>
-    <row r="402" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J402" s="33"/>
     </row>
-    <row r="403" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J403" s="33"/>
     </row>
-    <row r="404" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J404" s="33"/>
     </row>
-    <row r="405" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J405" s="33"/>
     </row>
-    <row r="406" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J406" s="33"/>
     </row>
-    <row r="407" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J407" s="33"/>
     </row>
-    <row r="408" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J408" s="33"/>
     </row>
-    <row r="409" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J409" s="33"/>
     </row>
-    <row r="410" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J410" s="33"/>
     </row>
-    <row r="411" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J411" s="33"/>
     </row>
-    <row r="412" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J412" s="33"/>
     </row>
-    <row r="413" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J413" s="33"/>
     </row>
-    <row r="414" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J414" s="33"/>
     </row>
-    <row r="415" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J415" s="33"/>
     </row>
-    <row r="416" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J416" s="33"/>
     </row>
-    <row r="417" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J417" s="33"/>
     </row>
-    <row r="418" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J418" s="33"/>
     </row>
-    <row r="419" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J419" s="33"/>
     </row>
-    <row r="420" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J420" s="33"/>
     </row>
-    <row r="421" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J421" s="33"/>
     </row>
-    <row r="422" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="422" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J422" s="33"/>
     </row>
-    <row r="423" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="423" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J423" s="33"/>
     </row>
-    <row r="424" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J424" s="33"/>
     </row>
-    <row r="425" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="425" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J425" s="33"/>
     </row>
-    <row r="426" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="426" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J426" s="33"/>
     </row>
-    <row r="427" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="427" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J427" s="33"/>
     </row>
-    <row r="428" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J428" s="33"/>
     </row>
-    <row r="429" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J429" s="33"/>
     </row>
-    <row r="430" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J430" s="33"/>
     </row>
-    <row r="431" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J431" s="33"/>
     </row>
-    <row r="432" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J432" s="33"/>
     </row>
-    <row r="433" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J433" s="33"/>
     </row>
-    <row r="434" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J434" s="33"/>
     </row>
-    <row r="435" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J435" s="33"/>
     </row>
-    <row r="436" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J436" s="33"/>
     </row>
-    <row r="437" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J437" s="33"/>
     </row>
-    <row r="438" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J438" s="33"/>
     </row>
-    <row r="439" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J439" s="33"/>
     </row>
-    <row r="440" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J440" s="33"/>
     </row>
-    <row r="441" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J441" s="33"/>
     </row>
-    <row r="442" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J442" s="33"/>
     </row>
-    <row r="443" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J443" s="33"/>
     </row>
-    <row r="444" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J444" s="33"/>
     </row>
-    <row r="445" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J445" s="33"/>
     </row>
-    <row r="446" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J446" s="33"/>
     </row>
-    <row r="447" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J447" s="33"/>
     </row>
-    <row r="448" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J448" s="33"/>
     </row>
-    <row r="449" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J449" s="33"/>
     </row>
-    <row r="450" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="450" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J450" s="33"/>
     </row>
-    <row r="451" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="451" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J451" s="33"/>
     </row>
-    <row r="452" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="452" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J452" s="33"/>
     </row>
-    <row r="453" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="453" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J453" s="33"/>
     </row>
-    <row r="454" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J454" s="33"/>
     </row>
-    <row r="455" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="455" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J455" s="33"/>
     </row>
-    <row r="456" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J456" s="33"/>
     </row>
-    <row r="457" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J457" s="33"/>
     </row>
-    <row r="458" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J458" s="33"/>
     </row>
-    <row r="459" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J459" s="33"/>
     </row>
-    <row r="460" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J460" s="33"/>
     </row>
-    <row r="461" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J461" s="33"/>
     </row>
-    <row r="462" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="462" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J462" s="33"/>
     </row>
-    <row r="463" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="463" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J463" s="33"/>
     </row>
-    <row r="464" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J464" s="33"/>
     </row>
-    <row r="465" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J465" s="33"/>
     </row>
-    <row r="466" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J466" s="33"/>
     </row>
-    <row r="467" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J467" s="33"/>
     </row>
-    <row r="468" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J468" s="33"/>
     </row>
-    <row r="469" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J469" s="33"/>
     </row>
-    <row r="470" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J470" s="33"/>
     </row>
-    <row r="471" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J471" s="33"/>
     </row>
-    <row r="472" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J472" s="33"/>
     </row>
-    <row r="473" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J473" s="33"/>
     </row>
-    <row r="474" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J474" s="33"/>
     </row>
-    <row r="475" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="475" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J475" s="33"/>
     </row>
-    <row r="476" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="476" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J476" s="33"/>
     </row>
-    <row r="477" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="477" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J477" s="33"/>
     </row>
-    <row r="478" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J478" s="33"/>
     </row>
-    <row r="479" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J479" s="33"/>
     </row>
-    <row r="480" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J480" s="33"/>
     </row>
-    <row r="481" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="481" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J481" s="33"/>
     </row>
-    <row r="482" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="482" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J482" s="33"/>
     </row>
-    <row r="483" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J483" s="33"/>
     </row>
-    <row r="484" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="484" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J484" s="33"/>
     </row>
-    <row r="485" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="485" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J485" s="33"/>
     </row>
-    <row r="486" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="486" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J486" s="33"/>
     </row>
-    <row r="487" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="487" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J487" s="33"/>
     </row>
-    <row r="488" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="488" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J488" s="33"/>
     </row>
-    <row r="489" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="489" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J489" s="33"/>
     </row>
-    <row r="490" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="490" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J490" s="33"/>
     </row>
-    <row r="491" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="491" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J491" s="33"/>
     </row>
-    <row r="492" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="492" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J492" s="33"/>
     </row>
-    <row r="493" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="493" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J493" s="33"/>
     </row>
-    <row r="494" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="494" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J494" s="33"/>
     </row>
-    <row r="495" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="495" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J495" s="33"/>
     </row>
-    <row r="496" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="496" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J496" s="33"/>
     </row>
-    <row r="497" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="497" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J497" s="33"/>
     </row>
-    <row r="498" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="498" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J498" s="33"/>
     </row>
-    <row r="499" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="499" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J499" s="33"/>
     </row>
-    <row r="500" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="500" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J500" s="33"/>
     </row>
-    <row r="501" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="501" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J501" s="33"/>
     </row>
-    <row r="502" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="502" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J502" s="33"/>
     </row>
-    <row r="503" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="503" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J503" s="33"/>
     </row>
-    <row r="504" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="504" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J504" s="33"/>
     </row>
-    <row r="505" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="505" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J505" s="33"/>
     </row>
-    <row r="506" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="506" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J506" s="33"/>
     </row>
-    <row r="507" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="507" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J507" s="33"/>
     </row>
-    <row r="508" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="508" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J508" s="33"/>
     </row>
-    <row r="509" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="509" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J509" s="33"/>
     </row>
-    <row r="510" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="510" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J510" s="33"/>
     </row>
-    <row r="511" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="511" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J511" s="33"/>
     </row>
-    <row r="512" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="512" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J512" s="33"/>
     </row>
-    <row r="513" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="513" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J513" s="33"/>
     </row>
-    <row r="514" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="514" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J514" s="33"/>
     </row>
-    <row r="515" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="515" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J515" s="33"/>
     </row>
-    <row r="516" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="516" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J516" s="33"/>
     </row>
-    <row r="517" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="517" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J517" s="33"/>
     </row>
-    <row r="518" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="518" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J518" s="33"/>
     </row>
-    <row r="519" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="519" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J519" s="33"/>
     </row>
-    <row r="520" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="520" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J520" s="33"/>
     </row>
-    <row r="521" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="521" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J521" s="33"/>
     </row>
-    <row r="522" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="522" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J522" s="33"/>
     </row>
-    <row r="523" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="523" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J523" s="33"/>
     </row>
-    <row r="524" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="524" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J524" s="33"/>
     </row>
-    <row r="525" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="525" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J525" s="33"/>
     </row>
-    <row r="526" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="526" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J526" s="33"/>
     </row>
-    <row r="527" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="527" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J527" s="33"/>
     </row>
-    <row r="528" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J528" s="33"/>
     </row>
-    <row r="529" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="529" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J529" s="33"/>
     </row>
-    <row r="530" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="530" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J530" s="33"/>
     </row>
-    <row r="531" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="531" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J531" s="33"/>
     </row>
-    <row r="532" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="532" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J532" s="33"/>
     </row>
-    <row r="533" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="533" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J533" s="33"/>
     </row>
-    <row r="534" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="534" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J534" s="33"/>
     </row>
-    <row r="535" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="535" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J535" s="33"/>
     </row>
-    <row r="536" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="536" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J536" s="33"/>
     </row>
-    <row r="537" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="537" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J537" s="33"/>
     </row>
-    <row r="538" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="538" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J538" s="33"/>
     </row>
-    <row r="539" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="539" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J539" s="33"/>
     </row>
-    <row r="540" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="540" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J540" s="33"/>
     </row>
-    <row r="541" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="541" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J541" s="33"/>
     </row>
-    <row r="542" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="542" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J542" s="33"/>
     </row>
-    <row r="543" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="543" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J543" s="33"/>
     </row>
-    <row r="544" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="544" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J544" s="33"/>
     </row>
-    <row r="545" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="545" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J545" s="33"/>
     </row>
-    <row r="546" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="546" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J546" s="33"/>
     </row>
-    <row r="547" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="547" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J547" s="33"/>
     </row>
-    <row r="548" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="548" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J548" s="33"/>
     </row>
-    <row r="549" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="549" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J549" s="33"/>
     </row>
-    <row r="550" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="550" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J550" s="33"/>
     </row>
-    <row r="551" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="551" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J551" s="33"/>
     </row>
-    <row r="552" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="552" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J552" s="33"/>
     </row>
-    <row r="553" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="553" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J553" s="33"/>
     </row>
-    <row r="554" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="554" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J554" s="33"/>
     </row>
-    <row r="555" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="555" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J555" s="33"/>
     </row>
-    <row r="556" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="556" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J556" s="33"/>
     </row>
-    <row r="557" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="557" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J557" s="33"/>
     </row>
-    <row r="558" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="558" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J558" s="33"/>
     </row>
-    <row r="559" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="559" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J559" s="33"/>
     </row>
-    <row r="560" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="560" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J560" s="33"/>
     </row>
-    <row r="561" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="561" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J561" s="33"/>
     </row>
-    <row r="562" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="562" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J562" s="33"/>
     </row>
-    <row r="563" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="563" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J563" s="33"/>
     </row>
-    <row r="564" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="564" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J564" s="33"/>
     </row>
-    <row r="565" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="565" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J565" s="33"/>
     </row>
-    <row r="566" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="566" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J566" s="33"/>
     </row>
-    <row r="567" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="567" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J567" s="33"/>
     </row>
-    <row r="568" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="568" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J568" s="33"/>
     </row>
-    <row r="569" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="569" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J569" s="33"/>
     </row>
-    <row r="570" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="570" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J570" s="33"/>
     </row>
-    <row r="571" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="571" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J571" s="33"/>
     </row>
-    <row r="572" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="572" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J572" s="33"/>
     </row>
-    <row r="573" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="573" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J573" s="33"/>
     </row>
-    <row r="574" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="574" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J574" s="33"/>
     </row>
-    <row r="575" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="575" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J575" s="33"/>
     </row>
-    <row r="576" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="576" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J576" s="33"/>
     </row>
-    <row r="577" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="577" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J577" s="33"/>
     </row>
-    <row r="578" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="578" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J578" s="33"/>
     </row>
-    <row r="579" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="579" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J579" s="33"/>
     </row>
-    <row r="580" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="580" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J580" s="33"/>
     </row>
-    <row r="581" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="581" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J581" s="33"/>
     </row>
-    <row r="582" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="582" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J582" s="33"/>
     </row>
-    <row r="583" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="583" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J583" s="33"/>
     </row>
-    <row r="584" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="584" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J584" s="33"/>
     </row>
-    <row r="585" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="585" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J585" s="33"/>
     </row>
-    <row r="586" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="586" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J586" s="33"/>
     </row>
-    <row r="587" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="587" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J587" s="33"/>
     </row>
-    <row r="588" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="588" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J588" s="33"/>
     </row>
-    <row r="589" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="589" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J589" s="33"/>
     </row>
-    <row r="590" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="590" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J590" s="33"/>
     </row>
-    <row r="591" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="591" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J591" s="33"/>
     </row>
-    <row r="592" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="592" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J592" s="33"/>
     </row>
-    <row r="593" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="593" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J593" s="33"/>
     </row>
-    <row r="594" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="594" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J594" s="33"/>
     </row>
-    <row r="595" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="595" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J595" s="33"/>
     </row>
-    <row r="596" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="596" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J596" s="33"/>
     </row>
-    <row r="597" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="597" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J597" s="33"/>
     </row>
-    <row r="598" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="598" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J598" s="33"/>
     </row>
-    <row r="599" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="599" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J599" s="33"/>
     </row>
-    <row r="600" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="600" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J600" s="33"/>
     </row>
-    <row r="601" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="601" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J601" s="33"/>
     </row>
-    <row r="602" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="602" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J602" s="33"/>
     </row>
-    <row r="603" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="603" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J603" s="33"/>
     </row>
-    <row r="604" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="604" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J604" s="33"/>
     </row>
-    <row r="605" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="605" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J605" s="33"/>
     </row>
-    <row r="606" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="606" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J606" s="33"/>
     </row>
-    <row r="607" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="607" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J607" s="33"/>
     </row>
-    <row r="608" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="608" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J608" s="33"/>
     </row>
-    <row r="609" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="609" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J609" s="33"/>
     </row>
-    <row r="610" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="610" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J610" s="33"/>
     </row>
-    <row r="611" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="611" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J611" s="33"/>
     </row>
-    <row r="612" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="612" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J612" s="33"/>
     </row>
-    <row r="613" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="613" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J613" s="33"/>
     </row>
-    <row r="614" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="614" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J614" s="33"/>
     </row>
-    <row r="615" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="615" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J615" s="33"/>
     </row>
-    <row r="616" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="616" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J616" s="33"/>
     </row>
-    <row r="617" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="617" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J617" s="33"/>
     </row>
-    <row r="618" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="618" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J618" s="33"/>
     </row>
-    <row r="619" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="619" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J619" s="33"/>
     </row>
-    <row r="620" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="620" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J620" s="33"/>
     </row>
-    <row r="621" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="621" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J621" s="33"/>
     </row>
-    <row r="622" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="622" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J622" s="33"/>
     </row>
-    <row r="623" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="623" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J623" s="33"/>
     </row>
-    <row r="624" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="624" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J624" s="33"/>
     </row>
-    <row r="625" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="625" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J625" s="33"/>
     </row>
-    <row r="626" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="626" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J626" s="33"/>
     </row>
-    <row r="627" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="627" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J627" s="33"/>
     </row>
-    <row r="628" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="628" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J628" s="33"/>
     </row>
-    <row r="629" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="629" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J629" s="33"/>
     </row>
-    <row r="630" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="630" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J630" s="33"/>
     </row>
-    <row r="631" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="631" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J631" s="33"/>
     </row>
-    <row r="632" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="632" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J632" s="33"/>
     </row>
-    <row r="633" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="633" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J633" s="33"/>
     </row>
-    <row r="634" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="634" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J634" s="33"/>
     </row>
-    <row r="635" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="635" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J635" s="33"/>
     </row>
-    <row r="636" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="636" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J636" s="33"/>
     </row>
-    <row r="637" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="637" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J637" s="33"/>
     </row>
-    <row r="638" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="638" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J638" s="33"/>
     </row>
-    <row r="639" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="639" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J639" s="33"/>
     </row>
-    <row r="640" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="640" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J640" s="33"/>
     </row>
-    <row r="641" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="641" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J641" s="33"/>
     </row>
-    <row r="642" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="642" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J642" s="33"/>
     </row>
-    <row r="643" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="643" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J643" s="33"/>
     </row>
-    <row r="644" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="644" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J644" s="33"/>
     </row>
-    <row r="645" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="645" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J645" s="33"/>
     </row>
-    <row r="646" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="646" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J646" s="33"/>
     </row>
-    <row r="647" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="647" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J647" s="33"/>
     </row>
-    <row r="648" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="648" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J648" s="33"/>
     </row>
-    <row r="649" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="649" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J649" s="33"/>
     </row>
-    <row r="650" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="650" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J650" s="33"/>
     </row>
-    <row r="651" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="651" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J651" s="33"/>
     </row>
-    <row r="652" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="652" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J652" s="33"/>
     </row>
-    <row r="653" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="653" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J653" s="33"/>
     </row>
-    <row r="654" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="654" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J654" s="33"/>
     </row>
-    <row r="655" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="655" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J655" s="33"/>
     </row>
-    <row r="656" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="656" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J656" s="33"/>
     </row>
-    <row r="657" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="657" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J657" s="33"/>
     </row>
-    <row r="658" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="658" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J658" s="33"/>
     </row>
-    <row r="659" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="659" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J659" s="33"/>
     </row>
-    <row r="660" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="660" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J660" s="33"/>
     </row>
-    <row r="661" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="661" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J661" s="33"/>
     </row>
-    <row r="662" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="662" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J662" s="33"/>
     </row>
-    <row r="663" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="663" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J663" s="33"/>
     </row>
-    <row r="664" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="664" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J664" s="33"/>
     </row>
-    <row r="665" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="665" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J665" s="33"/>
     </row>
-    <row r="666" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="666" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J666" s="33"/>
     </row>
-    <row r="667" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="667" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J667" s="33"/>
     </row>
-    <row r="668" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="668" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J668" s="33"/>
     </row>
-    <row r="669" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="669" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J669" s="33"/>
     </row>
-    <row r="670" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="670" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J670" s="33"/>
     </row>
-    <row r="671" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="671" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J671" s="33"/>
     </row>
-    <row r="672" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="672" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J672" s="33"/>
     </row>
-    <row r="673" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="673" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J673" s="33"/>
     </row>
-    <row r="674" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="674" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J674" s="33"/>
     </row>
-    <row r="675" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="675" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J675" s="33"/>
     </row>
-    <row r="676" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="676" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J676" s="33"/>
     </row>
-    <row r="677" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="677" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J677" s="33"/>
     </row>
-    <row r="678" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="678" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J678" s="33"/>
     </row>
-    <row r="679" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="679" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J679" s="33"/>
     </row>
-    <row r="680" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="680" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J680" s="33"/>
     </row>
-    <row r="681" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="681" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J681" s="33"/>
     </row>
-    <row r="682" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="682" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J682" s="33"/>
     </row>
-    <row r="683" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="683" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J683" s="33"/>
     </row>
-    <row r="684" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="684" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J684" s="33"/>
     </row>
-    <row r="685" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="685" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J685" s="33"/>
     </row>
-    <row r="686" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="686" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J686" s="33"/>
     </row>
-    <row r="687" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="687" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J687" s="33"/>
     </row>
-    <row r="688" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="688" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J688" s="33"/>
     </row>
-    <row r="689" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="689" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J689" s="33"/>
     </row>
-    <row r="690" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="690" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J690" s="33"/>
     </row>
-    <row r="691" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="691" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J691" s="33"/>
     </row>
-    <row r="692" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="692" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J692" s="33"/>
     </row>
-    <row r="693" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="693" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J693" s="33"/>
     </row>
-    <row r="694" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="694" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J694" s="33"/>
     </row>
-    <row r="695" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="695" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J695" s="33"/>
     </row>
-    <row r="696" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="696" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J696" s="33"/>
     </row>
-    <row r="697" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="697" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J697" s="33"/>
     </row>
-    <row r="698" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="698" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J698" s="33"/>
     </row>
-    <row r="699" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="699" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J699" s="33"/>
     </row>
-    <row r="700" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="700" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J700" s="33"/>
     </row>
-    <row r="701" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="701" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J701" s="33"/>
     </row>
-    <row r="702" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="702" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J702" s="33"/>
     </row>
-    <row r="703" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="703" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J703" s="33"/>
     </row>
-    <row r="704" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="704" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J704" s="33"/>
     </row>
-    <row r="705" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="705" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J705" s="33"/>
     </row>
-    <row r="706" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="706" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J706" s="33"/>
     </row>
-    <row r="707" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="707" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J707" s="33"/>
     </row>
-    <row r="708" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="708" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J708" s="33"/>
     </row>
-    <row r="709" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="709" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J709" s="33"/>
     </row>
-    <row r="710" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="710" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J710" s="33"/>
     </row>
-    <row r="711" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="711" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J711" s="33"/>
     </row>
-    <row r="712" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="712" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J712" s="33"/>
     </row>
-    <row r="713" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="713" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J713" s="33"/>
     </row>
-    <row r="714" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="714" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J714" s="33"/>
     </row>
-    <row r="715" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="715" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J715" s="33"/>
     </row>
-    <row r="716" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="716" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J716" s="33"/>
     </row>
-    <row r="717" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="717" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J717" s="33"/>
     </row>
-    <row r="718" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="718" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J718" s="33"/>
     </row>
-    <row r="719" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="719" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J719" s="33"/>
     </row>
-    <row r="720" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="720" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J720" s="33"/>
     </row>
-    <row r="721" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="721" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J721" s="33"/>
     </row>
-    <row r="722" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="722" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J722" s="33"/>
     </row>
-    <row r="723" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="723" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J723" s="33"/>
     </row>
-    <row r="724" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="724" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J724" s="33"/>
     </row>
-    <row r="725" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="725" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J725" s="33"/>
     </row>
-    <row r="726" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="726" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J726" s="33"/>
     </row>
-    <row r="727" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="727" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J727" s="33"/>
     </row>
-    <row r="728" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="728" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J728" s="33"/>
     </row>
-    <row r="729" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="729" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J729" s="33"/>
     </row>
-    <row r="730" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="730" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J730" s="33"/>
     </row>
-    <row r="731" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="731" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J731" s="33"/>
     </row>
-    <row r="732" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="732" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J732" s="33"/>
     </row>
-    <row r="733" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="733" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J733" s="33"/>
     </row>
-    <row r="734" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="734" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J734" s="33"/>
     </row>
-    <row r="735" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="735" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J735" s="33"/>
     </row>
-    <row r="736" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="736" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J736" s="33"/>
     </row>
-    <row r="737" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="737" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J737" s="33"/>
     </row>
-    <row r="738" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="738" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J738" s="33"/>
     </row>
-    <row r="739" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="739" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J739" s="33"/>
     </row>
-    <row r="740" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="740" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J740" s="33"/>
     </row>
-    <row r="741" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="741" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J741" s="33"/>
     </row>
-    <row r="742" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="742" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J742" s="33"/>
     </row>
-    <row r="743" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="743" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J743" s="33"/>
     </row>
-    <row r="744" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="744" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J744" s="33"/>
     </row>
-    <row r="745" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="745" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J745" s="33"/>
     </row>
-    <row r="746" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="746" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J746" s="33"/>
     </row>
-    <row r="747" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="747" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J747" s="33"/>
     </row>
-    <row r="748" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="748" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J748" s="33"/>
     </row>
-    <row r="749" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="749" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J749" s="33"/>
     </row>
-    <row r="750" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="750" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J750" s="33"/>
     </row>
-    <row r="751" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="751" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J751" s="33"/>
     </row>
-    <row r="752" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="752" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J752" s="33"/>
     </row>
-    <row r="753" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="753" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J753" s="33"/>
     </row>
-    <row r="754" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="754" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J754" s="33"/>
     </row>
-    <row r="755" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="755" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J755" s="33"/>
     </row>
-    <row r="756" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="756" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J756" s="33"/>
     </row>
-    <row r="757" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="757" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J757" s="33"/>
     </row>
-    <row r="758" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="758" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J758" s="33"/>
     </row>
-    <row r="759" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="759" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J759" s="33"/>
     </row>
-    <row r="760" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="760" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J760" s="33"/>
     </row>
-    <row r="761" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="761" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J761" s="33"/>
     </row>
-    <row r="762" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="762" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J762" s="33"/>
     </row>
-    <row r="763" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="763" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J763" s="33"/>
     </row>
-    <row r="764" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="764" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J764" s="33"/>
     </row>
-    <row r="765" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="765" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J765" s="33"/>
     </row>
-    <row r="766" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="766" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J766" s="33"/>
     </row>
-    <row r="767" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="767" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J767" s="33"/>
     </row>
-    <row r="768" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="768" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J768" s="33"/>
     </row>
-    <row r="769" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="769" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J769" s="33"/>
     </row>
-    <row r="770" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="770" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J770" s="33"/>
     </row>
-    <row r="771" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="771" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J771" s="33"/>
     </row>
-    <row r="772" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="772" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J772" s="33"/>
     </row>
-    <row r="773" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="773" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J773" s="33"/>
     </row>
-    <row r="774" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="774" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J774" s="33"/>
     </row>
-    <row r="775" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="775" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J775" s="33"/>
     </row>
-    <row r="776" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="776" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J776" s="33"/>
     </row>
-    <row r="777" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="777" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J777" s="33"/>
     </row>
-    <row r="778" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="778" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J778" s="33"/>
     </row>
-    <row r="779" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="779" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J779" s="33"/>
     </row>
-    <row r="780" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="780" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J780" s="33"/>
     </row>
-    <row r="781" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="781" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J781" s="33"/>
     </row>
-    <row r="782" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="782" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J782" s="33"/>
     </row>
-    <row r="783" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="783" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J783" s="33"/>
     </row>
-    <row r="784" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="784" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J784" s="33"/>
     </row>
-    <row r="785" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="785" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J785" s="33"/>
     </row>
-    <row r="786" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="786" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J786" s="33"/>
     </row>
-    <row r="787" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="787" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J787" s="33"/>
     </row>
-    <row r="788" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="788" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J788" s="33"/>
     </row>
-    <row r="789" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="789" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J789" s="33"/>
     </row>
-    <row r="790" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="790" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J790" s="33"/>
     </row>
-    <row r="791" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="791" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J791" s="33"/>
     </row>
-    <row r="792" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="792" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J792" s="33"/>
     </row>
-    <row r="793" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="793" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J793" s="33"/>
     </row>
-    <row r="794" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="794" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J794" s="33"/>
     </row>
-    <row r="795" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="795" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J795" s="33"/>
     </row>
-    <row r="796" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="796" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J796" s="33"/>
     </row>
-    <row r="797" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="797" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J797" s="33"/>
     </row>
-    <row r="798" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="798" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J798" s="33"/>
     </row>
-    <row r="799" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="799" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J799" s="33"/>
     </row>
-    <row r="800" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="800" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J800" s="33"/>
     </row>
-    <row r="801" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="801" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J801" s="33"/>
     </row>
-    <row r="802" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="802" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J802" s="33"/>
     </row>
-    <row r="803" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="803" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J803" s="33"/>
     </row>
-    <row r="804" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="804" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J804" s="33"/>
     </row>
-    <row r="805" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="805" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J805" s="33"/>
     </row>
-    <row r="806" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="806" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J806" s="33"/>
     </row>
-    <row r="807" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="807" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J807" s="33"/>
     </row>
-    <row r="808" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="808" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J808" s="33"/>
     </row>
-    <row r="809" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="809" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J809" s="33"/>
     </row>
-    <row r="810" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="810" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J810" s="33"/>
     </row>
-    <row r="811" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="811" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J811" s="33"/>
     </row>
-    <row r="812" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="812" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J812" s="33"/>
     </row>
-    <row r="813" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="813" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J813" s="33"/>
     </row>
-    <row r="814" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="814" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J814" s="33"/>
     </row>
-    <row r="815" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="815" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J815" s="33"/>
     </row>
-    <row r="816" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="816" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J816" s="33"/>
     </row>
-    <row r="817" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="817" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J817" s="33"/>
     </row>
-    <row r="818" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="818" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J818" s="33"/>
     </row>
-    <row r="819" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="819" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J819" s="33"/>
     </row>
-    <row r="820" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="820" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J820" s="33"/>
     </row>
-    <row r="821" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="821" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J821" s="33"/>
     </row>
-    <row r="822" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="822" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J822" s="33"/>
     </row>
-    <row r="823" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="823" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J823" s="33"/>
     </row>
-    <row r="824" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="824" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J824" s="33"/>
     </row>
-    <row r="825" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="825" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J825" s="33"/>
     </row>
-    <row r="826" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="826" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J826" s="33"/>
     </row>
-    <row r="827" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="827" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J827" s="33"/>
     </row>
-    <row r="828" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="828" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J828" s="33"/>
     </row>
-    <row r="829" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="829" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J829" s="33"/>
     </row>
-    <row r="830" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="830" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J830" s="33"/>
     </row>
-    <row r="831" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="831" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J831" s="33"/>
     </row>
-    <row r="832" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="832" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J832" s="33"/>
     </row>
-    <row r="833" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="833" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J833" s="33"/>
     </row>
-    <row r="834" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="834" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J834" s="33"/>
     </row>
-    <row r="835" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="835" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J835" s="33"/>
     </row>
-    <row r="836" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="836" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J836" s="33"/>
     </row>
-    <row r="837" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="837" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J837" s="33"/>
     </row>
-    <row r="838" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="838" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J838" s="33"/>
     </row>
-    <row r="839" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="839" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J839" s="33"/>
     </row>
-    <row r="840" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="840" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J840" s="33"/>
     </row>
-    <row r="841" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="841" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J841" s="33"/>
     </row>
-    <row r="842" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="842" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J842" s="33"/>
     </row>
-    <row r="843" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="843" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J843" s="33"/>
     </row>
-    <row r="844" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="844" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J844" s="33"/>
     </row>
-    <row r="845" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="845" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J845" s="33"/>
     </row>
-    <row r="846" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="846" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J846" s="33"/>
     </row>
-    <row r="847" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="847" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J847" s="33"/>
     </row>
-    <row r="848" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="848" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J848" s="33"/>
     </row>
-    <row r="849" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="849" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J849" s="33"/>
     </row>
-    <row r="850" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="850" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J850" s="33"/>
     </row>
-    <row r="851" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="851" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J851" s="33"/>
     </row>
-    <row r="852" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="852" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J852" s="33"/>
     </row>
-    <row r="853" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="853" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J853" s="33"/>
     </row>
-    <row r="854" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="854" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J854" s="33"/>
     </row>
-    <row r="855" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="855" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J855" s="33"/>
     </row>
-    <row r="856" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="856" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J856" s="33"/>
     </row>
-    <row r="857" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="857" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J857" s="33"/>
     </row>
-    <row r="858" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="858" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J858" s="33"/>
     </row>
-    <row r="859" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="859" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J859" s="33"/>
     </row>
-    <row r="860" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="860" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J860" s="33"/>
     </row>
-    <row r="861" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="861" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J861" s="33"/>
     </row>
-    <row r="862" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="862" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J862" s="33"/>
     </row>
-    <row r="863" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="863" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J863" s="33"/>
     </row>
-    <row r="864" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="864" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J864" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="B113:B125"/>
+    <mergeCell ref="B100:B111"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C142:I142"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="A100:A111"/>
     <mergeCell ref="A113:A125"/>
     <mergeCell ref="A93:A95"/>
@@ -12658,90 +12742,6 @@
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C142:I142"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="B113:B125"/>
-    <mergeCell ref="B100:B111"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="F107:I107"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C75:D75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
